--- a/BackTest/2020-01-15 BackTest VET.xlsx
+++ b/BackTest/2020-01-15 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -501,6 +507,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,6 +549,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -583,6 +591,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -622,6 +631,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -665,6 +675,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -706,6 +717,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -741,6 +753,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -776,6 +789,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -811,6 +825,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -846,6 +861,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -881,6 +897,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -916,6 +933,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -951,6 +969,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -990,6 +1009,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1031,6 +1051,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1072,6 +1093,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1107,6 +1129,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1142,6 +1165,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1177,6 +1201,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1212,6 +1237,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1247,6 +1273,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1282,6 +1309,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1317,6 +1345,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1352,6 +1381,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1387,6 +1417,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1422,6 +1453,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1457,6 +1489,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1492,6 +1525,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1527,6 +1561,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1562,6 +1597,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1597,6 +1633,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1632,6 +1669,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1667,6 +1705,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1702,6 +1741,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1737,6 +1777,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1772,6 +1813,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1807,6 +1849,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1842,6 +1885,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1877,6 +1921,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1912,6 +1957,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1947,6 +1993,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1982,6 +2029,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2017,6 +2065,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2052,6 +2101,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2087,6 +2137,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2122,6 +2173,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2157,6 +2209,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2192,6 +2245,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2227,6 +2281,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2262,6 +2317,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2297,6 +2353,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2332,6 +2389,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2367,6 +2425,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,6 +2461,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2437,6 +2497,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,6 +2533,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2507,6 +2569,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2542,6 +2605,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2577,6 +2641,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2612,6 +2677,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2647,6 +2713,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2682,6 +2749,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2717,6 +2785,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2752,6 +2821,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2787,6 +2857,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2822,6 +2893,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2857,6 +2929,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2892,6 +2965,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2927,6 +3001,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2962,6 +3037,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2997,6 +3073,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3032,6 +3109,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3067,6 +3145,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3102,6 +3181,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3137,6 +3217,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3172,6 +3253,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3207,6 +3289,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3242,6 +3325,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3277,6 +3361,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3312,6 +3397,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3347,6 +3433,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3382,6 +3469,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3417,6 +3505,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3452,6 +3541,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3487,6 +3577,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3522,6 +3613,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3557,6 +3649,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3592,6 +3685,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3627,6 +3721,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3662,6 +3757,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3697,6 +3793,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3732,6 +3829,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3767,6 +3865,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3802,6 +3901,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3837,6 +3937,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3872,6 +3973,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3907,6 +4009,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3942,6 +4045,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3977,6 +4081,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4012,6 +4117,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4047,6 +4153,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4082,6 +4189,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4117,6 +4225,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4152,6 +4261,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4187,6 +4297,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4222,6 +4333,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4257,6 +4369,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4292,6 +4405,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4327,6 +4441,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4362,6 +4477,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4397,6 +4513,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4432,6 +4549,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4467,6 +4585,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4502,6 +4621,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4537,6 +4657,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4572,6 +4693,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4607,6 +4729,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4642,6 +4765,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4669,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4677,6 +4801,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4712,6 +4837,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4747,6 +4873,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4782,6 +4909,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4817,6 +4945,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4852,6 +4981,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4887,6 +5017,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4922,6 +5053,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4957,6 +5089,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest VET.xlsx
+++ b/BackTest/2020-01-15 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:N158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.086</v>
+        <v>6.142</v>
       </c>
       <c r="C2" t="n">
-        <v>6.086</v>
+        <v>6.142</v>
       </c>
       <c r="D2" t="n">
-        <v>6.086</v>
+        <v>6.142</v>
       </c>
       <c r="E2" t="n">
-        <v>6.086</v>
+        <v>6.142</v>
       </c>
       <c r="F2" t="n">
-        <v>47494.9173</v>
+        <v>148632.4673</v>
       </c>
       <c r="G2" t="n">
-        <v>151873444.1324</v>
+        <v>108172.7568</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.086</v>
+        <v>6.143</v>
       </c>
       <c r="C3" t="n">
-        <v>6.086</v>
+        <v>6.143</v>
       </c>
       <c r="D3" t="n">
-        <v>6.086</v>
+        <v>6.143</v>
       </c>
       <c r="E3" t="n">
-        <v>6.086</v>
+        <v>6.143</v>
       </c>
       <c r="F3" t="n">
-        <v>26347.9043</v>
+        <v>266091.0262</v>
       </c>
       <c r="G3" t="n">
-        <v>151873444.1324</v>
+        <v>374263.7830000001</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.086</v>
+        <v>6.142</v>
       </c>
       <c r="K3" t="n">
-        <v>6.086</v>
+        <v>6.142</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
@@ -514,32 +514,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.086</v>
+        <v>6.144</v>
       </c>
       <c r="C4" t="n">
-        <v>6.086</v>
+        <v>6.144</v>
       </c>
       <c r="D4" t="n">
-        <v>6.086</v>
+        <v>6.144</v>
       </c>
       <c r="E4" t="n">
-        <v>6.086</v>
+        <v>6.144</v>
       </c>
       <c r="F4" t="n">
-        <v>96284.92</v>
+        <v>335739.552</v>
       </c>
       <c r="G4" t="n">
-        <v>151873444.1324</v>
+        <v>710003.3350000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>6.143</v>
+      </c>
       <c r="K4" t="n">
-        <v>6.086</v>
+        <v>6.142</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -556,32 +558,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.086</v>
+        <v>6.144</v>
       </c>
       <c r="C5" t="n">
-        <v>6.086</v>
+        <v>6.144</v>
       </c>
       <c r="D5" t="n">
-        <v>6.086</v>
+        <v>6.144</v>
       </c>
       <c r="E5" t="n">
-        <v>6.086</v>
+        <v>6.144</v>
       </c>
       <c r="F5" t="n">
-        <v>363529.375</v>
+        <v>312418.0636</v>
       </c>
       <c r="G5" t="n">
-        <v>151873444.1324</v>
+        <v>710003.3350000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>6.144</v>
+      </c>
       <c r="K5" t="n">
-        <v>6.086</v>
+        <v>6.142</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -598,22 +602,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="C6" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="D6" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="E6" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="F6" t="n">
-        <v>5000</v>
+        <v>29693.1749</v>
       </c>
       <c r="G6" t="n">
-        <v>151878444.1324</v>
+        <v>710003.3350000001</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -622,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.086</v>
+        <v>6.144</v>
       </c>
       <c r="K6" t="n">
-        <v>6.086</v>
+        <v>6.144</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
@@ -638,22 +642,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.168</v>
+        <v>6.144</v>
       </c>
       <c r="C7" t="n">
-        <v>6.168</v>
+        <v>6.144</v>
       </c>
       <c r="D7" t="n">
-        <v>6.168</v>
+        <v>6.144</v>
       </c>
       <c r="E7" t="n">
-        <v>6.168</v>
+        <v>6.144</v>
       </c>
       <c r="F7" t="n">
-        <v>3844.8754</v>
+        <v>689.3581</v>
       </c>
       <c r="G7" t="n">
-        <v>151882289.0078</v>
+        <v>710003.3350000001</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -662,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K7" t="n">
-        <v>6.086</v>
+        <v>6.144</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -682,36 +686,38 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.132</v>
+        <v>6.13</v>
       </c>
       <c r="C8" t="n">
-        <v>6.132</v>
+        <v>6.18</v>
       </c>
       <c r="D8" t="n">
-        <v>6.132</v>
+        <v>6.18</v>
       </c>
       <c r="E8" t="n">
-        <v>6.132</v>
+        <v>6.13</v>
       </c>
       <c r="F8" t="n">
-        <v>40000</v>
+        <v>3369834.998</v>
       </c>
       <c r="G8" t="n">
-        <v>151842289.0078</v>
+        <v>4079838.333</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>6.144</v>
+      </c>
       <c r="K8" t="n">
-        <v>6.086</v>
+        <v>6.144</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -724,32 +730,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.154</v>
+        <v>6.18</v>
       </c>
       <c r="C9" t="n">
-        <v>6.154</v>
+        <v>6.18</v>
       </c>
       <c r="D9" t="n">
-        <v>6.154</v>
+        <v>6.18</v>
       </c>
       <c r="E9" t="n">
-        <v>6.154</v>
+        <v>6.18</v>
       </c>
       <c r="F9" t="n">
-        <v>4140.5161</v>
+        <v>139063.0236</v>
       </c>
       <c r="G9" t="n">
-        <v>151846429.5239</v>
+        <v>4079838.333</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -760,22 +774,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.154</v>
+        <v>6.18</v>
       </c>
       <c r="C10" t="n">
-        <v>6.178</v>
+        <v>6.18</v>
       </c>
       <c r="D10" t="n">
-        <v>6.178</v>
+        <v>6.18</v>
       </c>
       <c r="E10" t="n">
-        <v>6.154</v>
+        <v>6.18</v>
       </c>
       <c r="F10" t="n">
-        <v>3751.8485</v>
+        <v>2077.67</v>
       </c>
       <c r="G10" t="n">
-        <v>151850181.3724</v>
+        <v>4079838.333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -784,8 +798,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -796,32 +816,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.179</v>
+        <v>6.131</v>
       </c>
       <c r="C11" t="n">
-        <v>6.179</v>
+        <v>6.131</v>
       </c>
       <c r="D11" t="n">
-        <v>6.179</v>
+        <v>6.133</v>
       </c>
       <c r="E11" t="n">
-        <v>6.179</v>
+        <v>6.131</v>
       </c>
       <c r="F11" t="n">
-        <v>4830.9393</v>
+        <v>272801.5961</v>
       </c>
       <c r="G11" t="n">
-        <v>151855012.3117</v>
+        <v>3807036.7369</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="K11" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -832,32 +860,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.178</v>
+        <v>6.13</v>
       </c>
       <c r="C12" t="n">
-        <v>6.178</v>
+        <v>6.132</v>
       </c>
       <c r="D12" t="n">
-        <v>6.178</v>
+        <v>6.132</v>
       </c>
       <c r="E12" t="n">
-        <v>6.178</v>
+        <v>6.13</v>
       </c>
       <c r="F12" t="n">
-        <v>9920.588599999999</v>
+        <v>32733.2242</v>
       </c>
       <c r="G12" t="n">
-        <v>151845091.7231</v>
+        <v>3839769.9611</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>6.131</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -868,32 +904,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.133</v>
+        <v>6.103</v>
       </c>
       <c r="C13" t="n">
-        <v>6.133</v>
+        <v>6.102</v>
       </c>
       <c r="D13" t="n">
-        <v>6.133</v>
+        <v>6.103</v>
       </c>
       <c r="E13" t="n">
-        <v>6.133</v>
+        <v>6.102</v>
       </c>
       <c r="F13" t="n">
         <v>40000</v>
       </c>
       <c r="G13" t="n">
-        <v>151805091.7231</v>
+        <v>3799769.9611</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>6.132</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -904,32 +948,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.132</v>
+        <v>6.131</v>
       </c>
       <c r="C14" t="n">
-        <v>6.1</v>
+        <v>6.131</v>
       </c>
       <c r="D14" t="n">
-        <v>6.132</v>
+        <v>6.131</v>
       </c>
       <c r="E14" t="n">
-        <v>6.1</v>
+        <v>6.131</v>
       </c>
       <c r="F14" t="n">
-        <v>566428.9906</v>
+        <v>158.5157</v>
       </c>
       <c r="G14" t="n">
-        <v>151238662.7325</v>
+        <v>3799928.4768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>6.102</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -940,32 +992,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>6.102</v>
+      </c>
+      <c r="C15" t="n">
         <v>6.1</v>
       </c>
-      <c r="C15" t="n">
-        <v>6.093</v>
-      </c>
       <c r="D15" t="n">
+        <v>6.102</v>
+      </c>
+      <c r="E15" t="n">
         <v>6.1</v>
       </c>
-      <c r="E15" t="n">
-        <v>6.093</v>
-      </c>
       <c r="F15" t="n">
-        <v>111850.54</v>
+        <v>40000</v>
       </c>
       <c r="G15" t="n">
-        <v>151126812.1925</v>
+        <v>3759928.4768</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>6.131</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -976,22 +1036,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.093</v>
+        <v>6.1</v>
       </c>
       <c r="C16" t="n">
-        <v>6.093</v>
+        <v>6.1</v>
       </c>
       <c r="D16" t="n">
-        <v>6.093</v>
+        <v>6.1</v>
       </c>
       <c r="E16" t="n">
-        <v>6.093</v>
+        <v>6.1</v>
       </c>
       <c r="F16" t="n">
-        <v>18100.2215</v>
+        <v>43585.8515</v>
       </c>
       <c r="G16" t="n">
-        <v>151126812.1925</v>
+        <v>3759928.4768</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1000,12 +1060,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.093</v>
+        <v>6.1</v>
       </c>
       <c r="K16" t="n">
-        <v>6.093</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
+        <v>6.144</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1016,36 +1080,38 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.109</v>
+        <v>6.12</v>
       </c>
       <c r="C17" t="n">
-        <v>6.109</v>
+        <v>6.121</v>
       </c>
       <c r="D17" t="n">
-        <v>6.109</v>
+        <v>6.121</v>
       </c>
       <c r="E17" t="n">
-        <v>6.109</v>
+        <v>6.12</v>
       </c>
       <c r="F17" t="n">
-        <v>100000</v>
+        <v>139708</v>
       </c>
       <c r="G17" t="n">
-        <v>151226812.1925</v>
+        <v>3899636.4768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K17" t="n">
-        <v>6.093</v>
+        <v>6.144</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -1058,36 +1124,38 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.091</v>
+        <v>6.12</v>
       </c>
       <c r="C18" t="n">
-        <v>6.091</v>
+        <v>6.1</v>
       </c>
       <c r="D18" t="n">
-        <v>6.091</v>
+        <v>6.12</v>
       </c>
       <c r="E18" t="n">
-        <v>6.091</v>
+        <v>6.1</v>
       </c>
       <c r="F18" t="n">
-        <v>136776.8197</v>
+        <v>40000</v>
       </c>
       <c r="G18" t="n">
-        <v>151090035.3728</v>
+        <v>3859636.4768</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>6.121</v>
+      </c>
       <c r="K18" t="n">
-        <v>6.093</v>
+        <v>6.144</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1100,32 +1168,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.128</v>
+        <v>6.13</v>
       </c>
       <c r="C19" t="n">
-        <v>6.129</v>
+        <v>6.13</v>
       </c>
       <c r="D19" t="n">
-        <v>6.129</v>
+        <v>6.13</v>
       </c>
       <c r="E19" t="n">
-        <v>6.128</v>
+        <v>6.13</v>
       </c>
       <c r="F19" t="n">
-        <v>253155.1353</v>
+        <v>97259.5661</v>
       </c>
       <c r="G19" t="n">
-        <v>151343190.5081</v>
+        <v>3956896.0429</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1136,32 +1212,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.129</v>
+        <v>6.13</v>
       </c>
       <c r="C20" t="n">
-        <v>6.129</v>
+        <v>6.13</v>
       </c>
       <c r="D20" t="n">
-        <v>6.129</v>
+        <v>6.13</v>
       </c>
       <c r="E20" t="n">
-        <v>6.129</v>
+        <v>6.13</v>
       </c>
       <c r="F20" t="n">
-        <v>2154.8087</v>
+        <v>58482.4622</v>
       </c>
       <c r="G20" t="n">
-        <v>151343190.5081</v>
+        <v>3956896.0429</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1172,32 +1256,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.128</v>
+        <v>6.1</v>
       </c>
       <c r="C21" t="n">
-        <v>6.128</v>
+        <v>6.1</v>
       </c>
       <c r="D21" t="n">
-        <v>6.128</v>
+        <v>6.1</v>
       </c>
       <c r="E21" t="n">
-        <v>6.128</v>
+        <v>6.1</v>
       </c>
       <c r="F21" t="n">
-        <v>23915.0544</v>
+        <v>24070.3617</v>
       </c>
       <c r="G21" t="n">
-        <v>151319275.4537</v>
+        <v>3932825.6812</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1208,32 +1300,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.127</v>
+        <v>6.116</v>
       </c>
       <c r="C22" t="n">
-        <v>6.129</v>
+        <v>6.14</v>
       </c>
       <c r="D22" t="n">
-        <v>6.129</v>
+        <v>6.185</v>
       </c>
       <c r="E22" t="n">
-        <v>6.127</v>
+        <v>6.09</v>
       </c>
       <c r="F22" t="n">
-        <v>180519.6862</v>
+        <v>148132820.7493</v>
       </c>
       <c r="G22" t="n">
-        <v>151499795.1399</v>
+        <v>152065646.4305</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1244,22 +1344,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.093</v>
+        <v>6.142</v>
       </c>
       <c r="C23" t="n">
-        <v>6.093</v>
+        <v>6.142</v>
       </c>
       <c r="D23" t="n">
-        <v>6.093</v>
+        <v>6.142</v>
       </c>
       <c r="E23" t="n">
-        <v>6.093</v>
+        <v>6.142</v>
       </c>
       <c r="F23" t="n">
-        <v>30000</v>
+        <v>27785.208</v>
       </c>
       <c r="G23" t="n">
-        <v>151469795.1399</v>
+        <v>152093431.6385</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1268,8 +1368,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1280,22 +1386,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.088</v>
+        <v>6.139</v>
       </c>
       <c r="C24" t="n">
-        <v>6.082</v>
+        <v>6.095</v>
       </c>
       <c r="D24" t="n">
-        <v>6.088</v>
+        <v>6.139</v>
       </c>
       <c r="E24" t="n">
-        <v>6.082</v>
+        <v>6.095</v>
       </c>
       <c r="F24" t="n">
-        <v>62531.6973</v>
+        <v>156000</v>
       </c>
       <c r="G24" t="n">
-        <v>151407263.4426</v>
+        <v>151937431.6385</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1304,8 +1410,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1316,22 +1428,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.082</v>
+        <v>6.096</v>
       </c>
       <c r="C25" t="n">
-        <v>6.082</v>
+        <v>6.096</v>
       </c>
       <c r="D25" t="n">
-        <v>6.082</v>
+        <v>6.096</v>
       </c>
       <c r="E25" t="n">
-        <v>6.082</v>
+        <v>6.096</v>
       </c>
       <c r="F25" t="n">
-        <v>62920</v>
+        <v>36012.4939</v>
       </c>
       <c r="G25" t="n">
-        <v>151407263.4426</v>
+        <v>151973444.1324</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1340,8 +1452,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1352,22 +1470,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.082</v>
+        <v>6.096</v>
       </c>
       <c r="C26" t="n">
-        <v>6.082</v>
+        <v>6.096</v>
       </c>
       <c r="D26" t="n">
-        <v>6.082</v>
+        <v>6.096</v>
       </c>
       <c r="E26" t="n">
-        <v>6.082</v>
+        <v>6.096</v>
       </c>
       <c r="F26" t="n">
-        <v>31262.4928</v>
+        <v>489.66</v>
       </c>
       <c r="G26" t="n">
-        <v>151407263.4426</v>
+        <v>151973444.1324</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1376,8 +1494,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1388,22 +1512,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.08</v>
+        <v>6.096</v>
       </c>
       <c r="C27" t="n">
-        <v>6.08</v>
+        <v>6.096</v>
       </c>
       <c r="D27" t="n">
-        <v>6.08</v>
+        <v>6.096</v>
       </c>
       <c r="E27" t="n">
-        <v>6.08</v>
+        <v>6.096</v>
       </c>
       <c r="F27" t="n">
-        <v>22939.6098</v>
+        <v>240.7103</v>
       </c>
       <c r="G27" t="n">
-        <v>151384323.8328</v>
+        <v>151973444.1324</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1412,8 +1536,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1424,22 +1554,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.099</v>
+        <v>6.096</v>
       </c>
       <c r="C28" t="n">
-        <v>6.08</v>
+        <v>6.086</v>
       </c>
       <c r="D28" t="n">
-        <v>6.099</v>
+        <v>6.096</v>
       </c>
       <c r="E28" t="n">
-        <v>6.08</v>
+        <v>6.086</v>
       </c>
       <c r="F28" t="n">
-        <v>18303.5972</v>
+        <v>100000</v>
       </c>
       <c r="G28" t="n">
-        <v>151384323.8328</v>
+        <v>151873444.1324</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1448,8 +1578,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1460,22 +1596,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.08</v>
+        <v>6.086</v>
       </c>
       <c r="C29" t="n">
-        <v>6.08</v>
+        <v>6.086</v>
       </c>
       <c r="D29" t="n">
-        <v>6.08</v>
+        <v>6.086</v>
       </c>
       <c r="E29" t="n">
-        <v>6.08</v>
+        <v>6.086</v>
       </c>
       <c r="F29" t="n">
-        <v>19939.618</v>
+        <v>93707.39049999999</v>
       </c>
       <c r="G29" t="n">
-        <v>151384323.8328</v>
+        <v>151873444.1324</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1484,8 +1620,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1496,22 +1638,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.08</v>
+        <v>6.086</v>
       </c>
       <c r="C30" t="n">
-        <v>6.08</v>
+        <v>6.086</v>
       </c>
       <c r="D30" t="n">
-        <v>6.08</v>
+        <v>6.086</v>
       </c>
       <c r="E30" t="n">
-        <v>6.08</v>
+        <v>6.086</v>
       </c>
       <c r="F30" t="n">
-        <v>6349.5087</v>
+        <v>62635.4929</v>
       </c>
       <c r="G30" t="n">
-        <v>151384323.8328</v>
+        <v>151873444.1324</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1520,8 +1662,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1532,22 +1680,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.08</v>
+        <v>6.086</v>
       </c>
       <c r="C31" t="n">
-        <v>6.08</v>
+        <v>6.086</v>
       </c>
       <c r="D31" t="n">
-        <v>6.08</v>
+        <v>6.086</v>
       </c>
       <c r="E31" t="n">
-        <v>6.08</v>
+        <v>6.086</v>
       </c>
       <c r="F31" t="n">
-        <v>12427.0915</v>
+        <v>47494.9173</v>
       </c>
       <c r="G31" t="n">
-        <v>151384323.8328</v>
+        <v>151873444.1324</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1556,8 +1704,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1568,22 +1722,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.079</v>
+        <v>6.086</v>
       </c>
       <c r="C32" t="n">
-        <v>6.079</v>
+        <v>6.086</v>
       </c>
       <c r="D32" t="n">
-        <v>6.079</v>
+        <v>6.086</v>
       </c>
       <c r="E32" t="n">
-        <v>6.079</v>
+        <v>6.086</v>
       </c>
       <c r="F32" t="n">
-        <v>38000</v>
+        <v>26347.9043</v>
       </c>
       <c r="G32" t="n">
-        <v>151346323.8328</v>
+        <v>151873444.1324</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1592,8 +1746,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1604,22 +1764,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.101</v>
+        <v>6.086</v>
       </c>
       <c r="C33" t="n">
-        <v>6.101</v>
+        <v>6.086</v>
       </c>
       <c r="D33" t="n">
-        <v>6.101</v>
+        <v>6.086</v>
       </c>
       <c r="E33" t="n">
-        <v>6.101</v>
+        <v>6.086</v>
       </c>
       <c r="F33" t="n">
-        <v>500</v>
+        <v>96284.92</v>
       </c>
       <c r="G33" t="n">
-        <v>151346823.8328</v>
+        <v>151873444.1324</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1628,8 +1788,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1640,22 +1806,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.102</v>
+        <v>6.086</v>
       </c>
       <c r="C34" t="n">
-        <v>6.102</v>
+        <v>6.086</v>
       </c>
       <c r="D34" t="n">
-        <v>6.102</v>
+        <v>6.086</v>
       </c>
       <c r="E34" t="n">
-        <v>6.102</v>
+        <v>6.086</v>
       </c>
       <c r="F34" t="n">
-        <v>8266.752399999999</v>
+        <v>363529.375</v>
       </c>
       <c r="G34" t="n">
-        <v>151355090.5852</v>
+        <v>151873444.1324</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1664,8 +1830,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1688,10 +1860,10 @@
         <v>6.12</v>
       </c>
       <c r="F35" t="n">
-        <v>4091.3649</v>
+        <v>5000</v>
       </c>
       <c r="G35" t="n">
-        <v>151359181.9501</v>
+        <v>151878444.1324</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1700,8 +1872,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1712,22 +1890,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.129</v>
+        <v>6.168</v>
       </c>
       <c r="C36" t="n">
-        <v>6.129</v>
+        <v>6.168</v>
       </c>
       <c r="D36" t="n">
-        <v>6.129</v>
+        <v>6.168</v>
       </c>
       <c r="E36" t="n">
-        <v>6.129</v>
+        <v>6.168</v>
       </c>
       <c r="F36" t="n">
-        <v>825.5051</v>
+        <v>3844.8754</v>
       </c>
       <c r="G36" t="n">
-        <v>151360007.4552</v>
+        <v>151882289.0078</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1736,8 +1914,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1748,22 +1932,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.129</v>
+        <v>6.132</v>
       </c>
       <c r="C37" t="n">
-        <v>6.12</v>
+        <v>6.132</v>
       </c>
       <c r="D37" t="n">
-        <v>6.129</v>
+        <v>6.132</v>
       </c>
       <c r="E37" t="n">
-        <v>6.12</v>
+        <v>6.132</v>
       </c>
       <c r="F37" t="n">
-        <v>9108.992399999999</v>
+        <v>40000</v>
       </c>
       <c r="G37" t="n">
-        <v>151350898.4628001</v>
+        <v>151842289.0078</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1772,8 +1956,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1784,22 +1974,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.12</v>
+        <v>6.154</v>
       </c>
       <c r="C38" t="n">
-        <v>6.12</v>
+        <v>6.154</v>
       </c>
       <c r="D38" t="n">
-        <v>6.12</v>
+        <v>6.154</v>
       </c>
       <c r="E38" t="n">
-        <v>6.12</v>
+        <v>6.154</v>
       </c>
       <c r="F38" t="n">
-        <v>16627</v>
+        <v>4140.5161</v>
       </c>
       <c r="G38" t="n">
-        <v>151350898.4628001</v>
+        <v>151846429.5239</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1808,8 +1998,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1820,22 +2016,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.12</v>
+        <v>6.154</v>
       </c>
       <c r="C39" t="n">
-        <v>6.12</v>
+        <v>6.178</v>
       </c>
       <c r="D39" t="n">
-        <v>6.12</v>
+        <v>6.178</v>
       </c>
       <c r="E39" t="n">
-        <v>6.12</v>
+        <v>6.154</v>
       </c>
       <c r="F39" t="n">
-        <v>32152.6215</v>
+        <v>3751.8485</v>
       </c>
       <c r="G39" t="n">
-        <v>151350898.4628001</v>
+        <v>151850181.3724</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1844,8 +2040,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1856,22 +2058,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.147</v>
+        <v>6.179</v>
       </c>
       <c r="C40" t="n">
-        <v>6.147</v>
+        <v>6.179</v>
       </c>
       <c r="D40" t="n">
-        <v>6.147</v>
+        <v>6.179</v>
       </c>
       <c r="E40" t="n">
-        <v>6.147</v>
+        <v>6.179</v>
       </c>
       <c r="F40" t="n">
-        <v>141.6517</v>
+        <v>4830.9393</v>
       </c>
       <c r="G40" t="n">
-        <v>151351040.1145</v>
+        <v>151855012.3117</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1880,8 +2082,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1892,22 +2100,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.087</v>
+        <v>6.178</v>
       </c>
       <c r="C41" t="n">
-        <v>6.087</v>
+        <v>6.178</v>
       </c>
       <c r="D41" t="n">
-        <v>6.087</v>
+        <v>6.178</v>
       </c>
       <c r="E41" t="n">
-        <v>6.087</v>
+        <v>6.178</v>
       </c>
       <c r="F41" t="n">
-        <v>186000</v>
+        <v>9920.588599999999</v>
       </c>
       <c r="G41" t="n">
-        <v>151165040.1145</v>
+        <v>151845091.7231</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1916,8 +2124,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1928,22 +2142,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.091</v>
+        <v>6.133</v>
       </c>
       <c r="C42" t="n">
-        <v>6.088</v>
+        <v>6.133</v>
       </c>
       <c r="D42" t="n">
-        <v>6.091</v>
+        <v>6.133</v>
       </c>
       <c r="E42" t="n">
-        <v>6.088</v>
+        <v>6.133</v>
       </c>
       <c r="F42" t="n">
-        <v>194100</v>
+        <v>40000</v>
       </c>
       <c r="G42" t="n">
-        <v>151359140.1145</v>
+        <v>151805091.7231</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1952,8 +2166,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1964,22 +2184,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.087</v>
+        <v>6.132</v>
       </c>
       <c r="C43" t="n">
-        <v>6.087</v>
+        <v>6.1</v>
       </c>
       <c r="D43" t="n">
-        <v>6.087</v>
+        <v>6.132</v>
       </c>
       <c r="E43" t="n">
-        <v>6.087</v>
+        <v>6.1</v>
       </c>
       <c r="F43" t="n">
-        <v>860.4601</v>
+        <v>566428.9906</v>
       </c>
       <c r="G43" t="n">
-        <v>151358279.6544001</v>
+        <v>151238662.7325</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1988,8 +2208,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2000,22 +2226,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.087</v>
+        <v>6.1</v>
       </c>
       <c r="C44" t="n">
-        <v>6.087</v>
+        <v>6.093</v>
       </c>
       <c r="D44" t="n">
-        <v>6.087</v>
+        <v>6.1</v>
       </c>
       <c r="E44" t="n">
-        <v>6.087</v>
+        <v>6.093</v>
       </c>
       <c r="F44" t="n">
-        <v>39865.0384</v>
+        <v>111850.54</v>
       </c>
       <c r="G44" t="n">
-        <v>151358279.6544001</v>
+        <v>151126812.1925</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2024,8 +2250,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2036,22 +2268,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.084</v>
+        <v>6.093</v>
       </c>
       <c r="C45" t="n">
-        <v>6.084</v>
+        <v>6.093</v>
       </c>
       <c r="D45" t="n">
-        <v>6.084</v>
+        <v>6.093</v>
       </c>
       <c r="E45" t="n">
-        <v>6.084</v>
+        <v>6.093</v>
       </c>
       <c r="F45" t="n">
-        <v>20001</v>
+        <v>18100.2215</v>
       </c>
       <c r="G45" t="n">
-        <v>151338278.6544001</v>
+        <v>151126812.1925</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2060,8 +2292,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2072,22 +2310,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.108</v>
+        <v>6.109</v>
       </c>
       <c r="C46" t="n">
-        <v>6.081</v>
+        <v>6.109</v>
       </c>
       <c r="D46" t="n">
-        <v>6.108</v>
+        <v>6.109</v>
       </c>
       <c r="E46" t="n">
-        <v>6.081</v>
+        <v>6.109</v>
       </c>
       <c r="F46" t="n">
-        <v>117356.9465</v>
+        <v>100000</v>
       </c>
       <c r="G46" t="n">
-        <v>151220921.7079</v>
+        <v>151226812.1925</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2096,8 +2334,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2108,22 +2352,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.082</v>
+        <v>6.091</v>
       </c>
       <c r="C47" t="n">
-        <v>6.082</v>
+        <v>6.091</v>
       </c>
       <c r="D47" t="n">
-        <v>6.082</v>
+        <v>6.091</v>
       </c>
       <c r="E47" t="n">
-        <v>6.082</v>
+        <v>6.091</v>
       </c>
       <c r="F47" t="n">
-        <v>12717.6495</v>
+        <v>136776.8197</v>
       </c>
       <c r="G47" t="n">
-        <v>151233639.3574001</v>
+        <v>151090035.3728</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2132,8 +2376,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2144,22 +2394,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.082</v>
+        <v>6.128</v>
       </c>
       <c r="C48" t="n">
-        <v>6.084</v>
+        <v>6.129</v>
       </c>
       <c r="D48" t="n">
-        <v>6.084</v>
+        <v>6.129</v>
       </c>
       <c r="E48" t="n">
-        <v>6.082</v>
+        <v>6.128</v>
       </c>
       <c r="F48" t="n">
-        <v>112000</v>
+        <v>253155.1353</v>
       </c>
       <c r="G48" t="n">
-        <v>151345639.3574001</v>
+        <v>151343190.5081</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2168,8 +2418,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2180,22 +2436,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.106</v>
+        <v>6.129</v>
       </c>
       <c r="C49" t="n">
-        <v>6.116</v>
+        <v>6.129</v>
       </c>
       <c r="D49" t="n">
-        <v>6.116</v>
+        <v>6.129</v>
       </c>
       <c r="E49" t="n">
-        <v>6.106</v>
+        <v>6.129</v>
       </c>
       <c r="F49" t="n">
-        <v>48969.41997383911</v>
+        <v>2154.8087</v>
       </c>
       <c r="G49" t="n">
-        <v>151394608.7773739</v>
+        <v>151343190.5081</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2204,8 +2460,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2216,22 +2478,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.115</v>
+        <v>6.128</v>
       </c>
       <c r="C50" t="n">
-        <v>6.115</v>
+        <v>6.128</v>
       </c>
       <c r="D50" t="n">
-        <v>6.115</v>
+        <v>6.128</v>
       </c>
       <c r="E50" t="n">
-        <v>6.115</v>
+        <v>6.128</v>
       </c>
       <c r="F50" t="n">
-        <v>250330.5497</v>
+        <v>23915.0544</v>
       </c>
       <c r="G50" t="n">
-        <v>151144278.2276739</v>
+        <v>151319275.4537</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2240,8 +2502,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2252,22 +2520,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.114</v>
+        <v>6.127</v>
       </c>
       <c r="C51" t="n">
-        <v>6.114</v>
+        <v>6.129</v>
       </c>
       <c r="D51" t="n">
-        <v>6.114</v>
+        <v>6.129</v>
       </c>
       <c r="E51" t="n">
-        <v>6.114</v>
+        <v>6.127</v>
       </c>
       <c r="F51" t="n">
-        <v>7752.3256</v>
+        <v>180519.6862</v>
       </c>
       <c r="G51" t="n">
-        <v>151136525.9020739</v>
+        <v>151499795.1399</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2276,8 +2544,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2562,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.114</v>
+        <v>6.093</v>
       </c>
       <c r="C52" t="n">
-        <v>6.117</v>
+        <v>6.093</v>
       </c>
       <c r="D52" t="n">
-        <v>6.117</v>
+        <v>6.093</v>
       </c>
       <c r="E52" t="n">
-        <v>6.114</v>
+        <v>6.093</v>
       </c>
       <c r="F52" t="n">
-        <v>39865.0384</v>
+        <v>30000</v>
       </c>
       <c r="G52" t="n">
-        <v>151176390.9404739</v>
+        <v>151469795.1399</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2312,8 +2586,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2324,22 +2604,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.117</v>
+        <v>6.088</v>
       </c>
       <c r="C53" t="n">
-        <v>6.117</v>
+        <v>6.082</v>
       </c>
       <c r="D53" t="n">
-        <v>6.117</v>
+        <v>6.088</v>
       </c>
       <c r="E53" t="n">
-        <v>6.117</v>
+        <v>6.082</v>
       </c>
       <c r="F53" t="n">
-        <v>412.8445</v>
+        <v>62531.6973</v>
       </c>
       <c r="G53" t="n">
-        <v>151176390.9404739</v>
+        <v>151407263.4426</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2348,8 +2628,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2360,22 +2646,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.11</v>
+        <v>6.082</v>
       </c>
       <c r="C54" t="n">
-        <v>6.149</v>
+        <v>6.082</v>
       </c>
       <c r="D54" t="n">
-        <v>6.149</v>
+        <v>6.082</v>
       </c>
       <c r="E54" t="n">
-        <v>6.11</v>
+        <v>6.082</v>
       </c>
       <c r="F54" t="n">
-        <v>76057.84269999999</v>
+        <v>62920</v>
       </c>
       <c r="G54" t="n">
-        <v>151252448.7831739</v>
+        <v>151407263.4426</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2384,8 +2670,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2396,22 +2688,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.111</v>
+        <v>6.082</v>
       </c>
       <c r="C55" t="n">
-        <v>6.111</v>
+        <v>6.082</v>
       </c>
       <c r="D55" t="n">
-        <v>6.111</v>
+        <v>6.082</v>
       </c>
       <c r="E55" t="n">
-        <v>6.111</v>
+        <v>6.082</v>
       </c>
       <c r="F55" t="n">
-        <v>500</v>
+        <v>31262.4928</v>
       </c>
       <c r="G55" t="n">
-        <v>151251948.7831739</v>
+        <v>151407263.4426</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2420,8 +2712,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2432,22 +2730,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.112</v>
+        <v>6.08</v>
       </c>
       <c r="C56" t="n">
-        <v>6.112</v>
+        <v>6.08</v>
       </c>
       <c r="D56" t="n">
-        <v>6.112</v>
+        <v>6.08</v>
       </c>
       <c r="E56" t="n">
-        <v>6.112</v>
+        <v>6.08</v>
       </c>
       <c r="F56" t="n">
-        <v>300</v>
+        <v>22939.6098</v>
       </c>
       <c r="G56" t="n">
-        <v>151252248.7831739</v>
+        <v>151384323.8328</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2456,8 +2754,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2468,22 +2772,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.15</v>
+        <v>6.099</v>
       </c>
       <c r="C57" t="n">
-        <v>6.15</v>
+        <v>6.08</v>
       </c>
       <c r="D57" t="n">
-        <v>6.15</v>
+        <v>6.099</v>
       </c>
       <c r="E57" t="n">
-        <v>6.15</v>
+        <v>6.08</v>
       </c>
       <c r="F57" t="n">
-        <v>38642.349</v>
+        <v>18303.5972</v>
       </c>
       <c r="G57" t="n">
-        <v>151290891.1321739</v>
+        <v>151384323.8328</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2492,8 +2796,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2504,22 +2814,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.151</v>
+        <v>6.08</v>
       </c>
       <c r="C58" t="n">
-        <v>6.151</v>
+        <v>6.08</v>
       </c>
       <c r="D58" t="n">
-        <v>6.151</v>
+        <v>6.08</v>
       </c>
       <c r="E58" t="n">
-        <v>6.151</v>
+        <v>6.08</v>
       </c>
       <c r="F58" t="n">
-        <v>4207.0723</v>
+        <v>19939.618</v>
       </c>
       <c r="G58" t="n">
-        <v>151295098.2044739</v>
+        <v>151384323.8328</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2528,8 +2838,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2540,22 +2856,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.151</v>
+        <v>6.08</v>
       </c>
       <c r="C59" t="n">
-        <v>6.15</v>
+        <v>6.08</v>
       </c>
       <c r="D59" t="n">
-        <v>6.151</v>
+        <v>6.08</v>
       </c>
       <c r="E59" t="n">
-        <v>6.15</v>
+        <v>6.08</v>
       </c>
       <c r="F59" t="n">
-        <v>127082.3749</v>
+        <v>6349.5087</v>
       </c>
       <c r="G59" t="n">
-        <v>151168015.8295739</v>
+        <v>151384323.8328</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2564,8 +2880,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2576,22 +2898,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.15</v>
+        <v>6.08</v>
       </c>
       <c r="C60" t="n">
-        <v>6.15</v>
+        <v>6.08</v>
       </c>
       <c r="D60" t="n">
-        <v>6.15</v>
+        <v>6.08</v>
       </c>
       <c r="E60" t="n">
-        <v>6.15</v>
+        <v>6.08</v>
       </c>
       <c r="F60" t="n">
-        <v>1600</v>
+        <v>12427.0915</v>
       </c>
       <c r="G60" t="n">
-        <v>151168015.8295739</v>
+        <v>151384323.8328</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2600,8 +2922,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2612,22 +2940,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.12</v>
+        <v>6.079</v>
       </c>
       <c r="C61" t="n">
-        <v>6.12</v>
+        <v>6.079</v>
       </c>
       <c r="D61" t="n">
-        <v>6.12</v>
+        <v>6.079</v>
       </c>
       <c r="E61" t="n">
-        <v>6.12</v>
+        <v>6.079</v>
       </c>
       <c r="F61" t="n">
-        <v>8116.6223</v>
+        <v>38000</v>
       </c>
       <c r="G61" t="n">
-        <v>151159899.2072739</v>
+        <v>151346323.8328</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2636,8 +2964,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2648,22 +2982,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.15</v>
+        <v>6.101</v>
       </c>
       <c r="C62" t="n">
-        <v>6.15</v>
+        <v>6.101</v>
       </c>
       <c r="D62" t="n">
-        <v>6.15</v>
+        <v>6.101</v>
       </c>
       <c r="E62" t="n">
-        <v>6.15</v>
+        <v>6.101</v>
       </c>
       <c r="F62" t="n">
-        <v>32307.8671</v>
+        <v>500</v>
       </c>
       <c r="G62" t="n">
-        <v>151192207.0743739</v>
+        <v>151346823.8328</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2672,8 +3006,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2684,22 +3024,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.124</v>
+        <v>6.102</v>
       </c>
       <c r="C63" t="n">
-        <v>6.124</v>
+        <v>6.102</v>
       </c>
       <c r="D63" t="n">
-        <v>6.124</v>
+        <v>6.102</v>
       </c>
       <c r="E63" t="n">
-        <v>6.124</v>
+        <v>6.102</v>
       </c>
       <c r="F63" t="n">
-        <v>24996.8431</v>
+        <v>8266.752399999999</v>
       </c>
       <c r="G63" t="n">
-        <v>151167210.2312739</v>
+        <v>151355090.5852</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2708,8 +3048,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2720,22 +3066,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.153</v>
+        <v>6.12</v>
       </c>
       <c r="C64" t="n">
-        <v>6.153</v>
+        <v>6.12</v>
       </c>
       <c r="D64" t="n">
-        <v>6.153</v>
+        <v>6.12</v>
       </c>
       <c r="E64" t="n">
-        <v>6.153</v>
+        <v>6.12</v>
       </c>
       <c r="F64" t="n">
-        <v>5686</v>
+        <v>4091.3649</v>
       </c>
       <c r="G64" t="n">
-        <v>151172896.2312739</v>
+        <v>151359181.9501</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2744,8 +3090,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2756,22 +3108,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.153</v>
+        <v>6.129</v>
       </c>
       <c r="C65" t="n">
-        <v>6.154</v>
+        <v>6.129</v>
       </c>
       <c r="D65" t="n">
-        <v>6.154</v>
+        <v>6.129</v>
       </c>
       <c r="E65" t="n">
-        <v>6.152</v>
+        <v>6.129</v>
       </c>
       <c r="F65" t="n">
-        <v>32676</v>
+        <v>825.5051</v>
       </c>
       <c r="G65" t="n">
-        <v>151205572.2312739</v>
+        <v>151360007.4552</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2780,8 +3132,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2792,22 +3150,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.154</v>
+        <v>6.129</v>
       </c>
       <c r="C66" t="n">
-        <v>6.154</v>
+        <v>6.12</v>
       </c>
       <c r="D66" t="n">
-        <v>6.154</v>
+        <v>6.129</v>
       </c>
       <c r="E66" t="n">
-        <v>6.154</v>
+        <v>6.12</v>
       </c>
       <c r="F66" t="n">
-        <v>16338</v>
+        <v>9108.992399999999</v>
       </c>
       <c r="G66" t="n">
-        <v>151205572.2312739</v>
+        <v>151350898.4628001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2816,8 +3174,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2828,22 +3192,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.154</v>
+        <v>6.12</v>
       </c>
       <c r="C67" t="n">
-        <v>6.141</v>
+        <v>6.12</v>
       </c>
       <c r="D67" t="n">
-        <v>6.154</v>
+        <v>6.12</v>
       </c>
       <c r="E67" t="n">
-        <v>6.141</v>
+        <v>6.12</v>
       </c>
       <c r="F67" t="n">
-        <v>17483.6383</v>
+        <v>16627</v>
       </c>
       <c r="G67" t="n">
-        <v>151188088.5929739</v>
+        <v>151350898.4628001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2852,8 +3216,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2864,22 +3234,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.17</v>
+        <v>6.12</v>
       </c>
       <c r="C68" t="n">
-        <v>6.17</v>
+        <v>6.12</v>
       </c>
       <c r="D68" t="n">
-        <v>6.17</v>
+        <v>6.12</v>
       </c>
       <c r="E68" t="n">
-        <v>6.17</v>
+        <v>6.12</v>
       </c>
       <c r="F68" t="n">
-        <v>64202.9788</v>
+        <v>32152.6215</v>
       </c>
       <c r="G68" t="n">
-        <v>151252291.5717739</v>
+        <v>151350898.4628001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2888,8 +3258,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2900,22 +3276,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.196</v>
+        <v>6.147</v>
       </c>
       <c r="C69" t="n">
-        <v>6.196</v>
+        <v>6.147</v>
       </c>
       <c r="D69" t="n">
-        <v>6.196</v>
+        <v>6.147</v>
       </c>
       <c r="E69" t="n">
-        <v>6.196</v>
+        <v>6.147</v>
       </c>
       <c r="F69" t="n">
-        <v>142479.6276</v>
+        <v>141.6517</v>
       </c>
       <c r="G69" t="n">
-        <v>151394771.1993739</v>
+        <v>151351040.1145</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2924,8 +3300,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2936,22 +3318,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.196</v>
+        <v>6.087</v>
       </c>
       <c r="C70" t="n">
-        <v>6.196</v>
+        <v>6.087</v>
       </c>
       <c r="D70" t="n">
-        <v>6.196</v>
+        <v>6.087</v>
       </c>
       <c r="E70" t="n">
-        <v>6.196</v>
+        <v>6.087</v>
       </c>
       <c r="F70" t="n">
-        <v>19359.3434</v>
+        <v>186000</v>
       </c>
       <c r="G70" t="n">
-        <v>151394771.1993739</v>
+        <v>151165040.1145</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2960,8 +3342,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2972,22 +3360,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.199</v>
+        <v>6.091</v>
       </c>
       <c r="C71" t="n">
-        <v>6.2</v>
+        <v>6.088</v>
       </c>
       <c r="D71" t="n">
-        <v>6.2</v>
+        <v>6.091</v>
       </c>
       <c r="E71" t="n">
-        <v>6.199</v>
+        <v>6.088</v>
       </c>
       <c r="F71" t="n">
-        <v>79308.33990000001</v>
+        <v>194100</v>
       </c>
       <c r="G71" t="n">
-        <v>151474079.5392739</v>
+        <v>151359140.1145</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2996,8 +3384,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3008,22 +3402,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.172</v>
+        <v>6.087</v>
       </c>
       <c r="C72" t="n">
-        <v>6.172</v>
+        <v>6.087</v>
       </c>
       <c r="D72" t="n">
-        <v>6.172</v>
+        <v>6.087</v>
       </c>
       <c r="E72" t="n">
-        <v>6.172</v>
+        <v>6.087</v>
       </c>
       <c r="F72" t="n">
-        <v>39906.7486</v>
+        <v>860.4601</v>
       </c>
       <c r="G72" t="n">
-        <v>151434172.7906739</v>
+        <v>151358279.6544001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3032,8 +3426,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3044,22 +3444,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.172</v>
+        <v>6.087</v>
       </c>
       <c r="C73" t="n">
-        <v>6.172</v>
+        <v>6.087</v>
       </c>
       <c r="D73" t="n">
-        <v>6.172</v>
+        <v>6.087</v>
       </c>
       <c r="E73" t="n">
-        <v>6.172</v>
+        <v>6.087</v>
       </c>
       <c r="F73" t="n">
-        <v>2513.2514</v>
+        <v>39865.0384</v>
       </c>
       <c r="G73" t="n">
-        <v>151434172.7906739</v>
+        <v>151358279.6544001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3068,8 +3468,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3080,22 +3486,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.145</v>
+        <v>6.084</v>
       </c>
       <c r="C74" t="n">
-        <v>6.145</v>
+        <v>6.084</v>
       </c>
       <c r="D74" t="n">
-        <v>6.145</v>
+        <v>6.084</v>
       </c>
       <c r="E74" t="n">
-        <v>6.145</v>
+        <v>6.084</v>
       </c>
       <c r="F74" t="n">
-        <v>306000</v>
+        <v>20001</v>
       </c>
       <c r="G74" t="n">
-        <v>151128172.7906739</v>
+        <v>151338278.6544001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3104,8 +3510,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3116,22 +3528,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.131</v>
+        <v>6.108</v>
       </c>
       <c r="C75" t="n">
-        <v>6.142</v>
+        <v>6.081</v>
       </c>
       <c r="D75" t="n">
-        <v>6.142</v>
+        <v>6.108</v>
       </c>
       <c r="E75" t="n">
-        <v>6.124</v>
+        <v>6.081</v>
       </c>
       <c r="F75" t="n">
-        <v>61276.5359</v>
+        <v>117356.9465</v>
       </c>
       <c r="G75" t="n">
-        <v>151066896.2547739</v>
+        <v>151220921.7079</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3140,8 +3552,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3152,22 +3570,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.142</v>
+        <v>6.082</v>
       </c>
       <c r="C76" t="n">
-        <v>6.143</v>
+        <v>6.082</v>
       </c>
       <c r="D76" t="n">
-        <v>6.143</v>
+        <v>6.082</v>
       </c>
       <c r="E76" t="n">
-        <v>6.142</v>
+        <v>6.082</v>
       </c>
       <c r="F76" t="n">
-        <v>243644.3926</v>
+        <v>12717.6495</v>
       </c>
       <c r="G76" t="n">
-        <v>151310540.6473739</v>
+        <v>151233639.3574001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3176,8 +3594,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3188,22 +3612,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.124</v>
+        <v>6.082</v>
       </c>
       <c r="C77" t="n">
-        <v>6.126</v>
+        <v>6.084</v>
       </c>
       <c r="D77" t="n">
-        <v>6.126</v>
+        <v>6.084</v>
       </c>
       <c r="E77" t="n">
-        <v>6.124</v>
+        <v>6.082</v>
       </c>
       <c r="F77" t="n">
-        <v>123761.8089</v>
+        <v>112000</v>
       </c>
       <c r="G77" t="n">
-        <v>151186778.8384739</v>
+        <v>151345639.3574001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3212,8 +3636,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3224,22 +3654,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.142</v>
+        <v>6.106</v>
       </c>
       <c r="C78" t="n">
-        <v>6.142</v>
+        <v>6.116</v>
       </c>
       <c r="D78" t="n">
-        <v>6.142</v>
+        <v>6.116</v>
       </c>
       <c r="E78" t="n">
-        <v>6.142</v>
+        <v>6.106</v>
       </c>
       <c r="F78" t="n">
-        <v>59637.1492</v>
+        <v>48969.41997383911</v>
       </c>
       <c r="G78" t="n">
-        <v>151246415.9876739</v>
+        <v>151394608.7773739</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3248,8 +3678,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3260,22 +3696,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.127</v>
+        <v>6.115</v>
       </c>
       <c r="C79" t="n">
-        <v>6.121</v>
+        <v>6.115</v>
       </c>
       <c r="D79" t="n">
-        <v>6.127</v>
+        <v>6.115</v>
       </c>
       <c r="E79" t="n">
-        <v>6.121</v>
+        <v>6.115</v>
       </c>
       <c r="F79" t="n">
-        <v>35018.9589</v>
+        <v>250330.5497</v>
       </c>
       <c r="G79" t="n">
-        <v>151211397.0287739</v>
+        <v>151144278.2276739</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3284,8 +3720,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3296,22 +3738,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.16</v>
+        <v>6.114</v>
       </c>
       <c r="C80" t="n">
-        <v>6.16</v>
+        <v>6.114</v>
       </c>
       <c r="D80" t="n">
-        <v>6.16</v>
+        <v>6.114</v>
       </c>
       <c r="E80" t="n">
-        <v>6.16</v>
+        <v>6.114</v>
       </c>
       <c r="F80" t="n">
-        <v>24350.64935064935</v>
+        <v>7752.3256</v>
       </c>
       <c r="G80" t="n">
-        <v>151235747.6781245</v>
+        <v>151136525.9020739</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3320,8 +3762,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3332,22 +3780,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.143</v>
+        <v>6.114</v>
       </c>
       <c r="C81" t="n">
-        <v>6.143</v>
+        <v>6.117</v>
       </c>
       <c r="D81" t="n">
-        <v>6.143</v>
+        <v>6.117</v>
       </c>
       <c r="E81" t="n">
-        <v>6.143</v>
+        <v>6.114</v>
       </c>
       <c r="F81" t="n">
-        <v>63285.8587</v>
+        <v>39865.0384</v>
       </c>
       <c r="G81" t="n">
-        <v>151172461.8194245</v>
+        <v>151176390.9404739</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3356,8 +3804,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3368,22 +3822,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.18</v>
+        <v>6.117</v>
       </c>
       <c r="C82" t="n">
-        <v>6.204</v>
+        <v>6.117</v>
       </c>
       <c r="D82" t="n">
-        <v>6.204</v>
+        <v>6.117</v>
       </c>
       <c r="E82" t="n">
-        <v>6.18</v>
+        <v>6.117</v>
       </c>
       <c r="F82" t="n">
-        <v>81817.3167</v>
+        <v>412.8445</v>
       </c>
       <c r="G82" t="n">
-        <v>151254279.1361245</v>
+        <v>151176390.9404739</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3392,8 +3846,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3404,22 +3864,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.21</v>
+        <v>6.11</v>
       </c>
       <c r="C83" t="n">
-        <v>6.21</v>
+        <v>6.149</v>
       </c>
       <c r="D83" t="n">
-        <v>6.21</v>
+        <v>6.149</v>
       </c>
       <c r="E83" t="n">
-        <v>6.21</v>
+        <v>6.11</v>
       </c>
       <c r="F83" t="n">
-        <v>36355.0498</v>
+        <v>76057.84269999999</v>
       </c>
       <c r="G83" t="n">
-        <v>151290634.1859245</v>
+        <v>151252448.7831739</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3428,8 +3888,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3440,22 +3906,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.227</v>
+        <v>6.111</v>
       </c>
       <c r="C84" t="n">
-        <v>6.235</v>
+        <v>6.111</v>
       </c>
       <c r="D84" t="n">
-        <v>6.235</v>
+        <v>6.111</v>
       </c>
       <c r="E84" t="n">
-        <v>6.227</v>
+        <v>6.111</v>
       </c>
       <c r="F84" t="n">
-        <v>116000</v>
+        <v>500</v>
       </c>
       <c r="G84" t="n">
-        <v>151406634.1859245</v>
+        <v>151251948.7831739</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3464,8 +3930,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3476,22 +3948,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.26</v>
+        <v>6.112</v>
       </c>
       <c r="C85" t="n">
-        <v>6.26</v>
+        <v>6.112</v>
       </c>
       <c r="D85" t="n">
-        <v>6.26</v>
+        <v>6.112</v>
       </c>
       <c r="E85" t="n">
-        <v>6.26</v>
+        <v>6.112</v>
       </c>
       <c r="F85" t="n">
-        <v>1990.5205</v>
+        <v>300</v>
       </c>
       <c r="G85" t="n">
-        <v>151408624.7064245</v>
+        <v>151252248.7831739</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3500,8 +3972,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3512,22 +3990,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.266</v>
+        <v>6.15</v>
       </c>
       <c r="C86" t="n">
-        <v>6.266</v>
+        <v>6.15</v>
       </c>
       <c r="D86" t="n">
-        <v>6.266</v>
+        <v>6.15</v>
       </c>
       <c r="E86" t="n">
-        <v>6.266</v>
+        <v>6.15</v>
       </c>
       <c r="F86" t="n">
-        <v>22920.5919</v>
+        <v>38642.349</v>
       </c>
       <c r="G86" t="n">
-        <v>151431545.2983245</v>
+        <v>151290891.1321739</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3536,8 +4014,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +4032,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.217</v>
+        <v>6.151</v>
       </c>
       <c r="C87" t="n">
-        <v>6.214</v>
+        <v>6.151</v>
       </c>
       <c r="D87" t="n">
-        <v>6.217</v>
+        <v>6.151</v>
       </c>
       <c r="E87" t="n">
-        <v>6.214</v>
+        <v>6.151</v>
       </c>
       <c r="F87" t="n">
-        <v>188076</v>
+        <v>4207.0723</v>
       </c>
       <c r="G87" t="n">
-        <v>151243469.2983245</v>
+        <v>151295098.2044739</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3572,8 +4056,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3584,22 +4074,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.214</v>
+        <v>6.151</v>
       </c>
       <c r="C88" t="n">
-        <v>6.214</v>
+        <v>6.15</v>
       </c>
       <c r="D88" t="n">
-        <v>6.214</v>
+        <v>6.151</v>
       </c>
       <c r="E88" t="n">
-        <v>6.214</v>
+        <v>6.15</v>
       </c>
       <c r="F88" t="n">
-        <v>317109.7837</v>
+        <v>127082.3749</v>
       </c>
       <c r="G88" t="n">
-        <v>151243469.2983245</v>
+        <v>151168015.8295739</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3608,8 +4098,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3620,22 +4116,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.201</v>
+        <v>6.15</v>
       </c>
       <c r="C89" t="n">
-        <v>6.201</v>
+        <v>6.15</v>
       </c>
       <c r="D89" t="n">
-        <v>6.201</v>
+        <v>6.15</v>
       </c>
       <c r="E89" t="n">
-        <v>6.201</v>
+        <v>6.15</v>
       </c>
       <c r="F89" t="n">
-        <v>10115.7813</v>
+        <v>1600</v>
       </c>
       <c r="G89" t="n">
-        <v>151233353.5170245</v>
+        <v>151168015.8295739</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3644,8 +4140,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3656,22 +4158,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.182</v>
+        <v>6.12</v>
       </c>
       <c r="C90" t="n">
-        <v>6.162</v>
+        <v>6.12</v>
       </c>
       <c r="D90" t="n">
-        <v>6.182</v>
+        <v>6.12</v>
       </c>
       <c r="E90" t="n">
-        <v>6.162</v>
+        <v>6.12</v>
       </c>
       <c r="F90" t="n">
-        <v>200000</v>
+        <v>8116.6223</v>
       </c>
       <c r="G90" t="n">
-        <v>151033353.5170245</v>
+        <v>151159899.2072739</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3680,8 +4182,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3692,22 +4200,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.171</v>
+        <v>6.15</v>
       </c>
       <c r="C91" t="n">
-        <v>6.171</v>
+        <v>6.15</v>
       </c>
       <c r="D91" t="n">
-        <v>6.171</v>
+        <v>6.15</v>
       </c>
       <c r="E91" t="n">
-        <v>6.171</v>
+        <v>6.15</v>
       </c>
       <c r="F91" t="n">
-        <v>30000</v>
+        <v>32307.8671</v>
       </c>
       <c r="G91" t="n">
-        <v>151063353.5170245</v>
+        <v>151192207.0743739</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3716,8 +4224,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3728,22 +4242,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.183</v>
+        <v>6.124</v>
       </c>
       <c r="C92" t="n">
-        <v>6.183</v>
+        <v>6.124</v>
       </c>
       <c r="D92" t="n">
-        <v>6.183</v>
+        <v>6.124</v>
       </c>
       <c r="E92" t="n">
-        <v>6.183</v>
+        <v>6.124</v>
       </c>
       <c r="F92" t="n">
-        <v>161838.971</v>
+        <v>24996.8431</v>
       </c>
       <c r="G92" t="n">
-        <v>151225192.4880245</v>
+        <v>151167210.2312739</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3752,8 +4266,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3764,22 +4284,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.2</v>
+        <v>6.153</v>
       </c>
       <c r="C93" t="n">
-        <v>6.201</v>
+        <v>6.153</v>
       </c>
       <c r="D93" t="n">
-        <v>6.201</v>
+        <v>6.153</v>
       </c>
       <c r="E93" t="n">
-        <v>6.2</v>
+        <v>6.153</v>
       </c>
       <c r="F93" t="n">
-        <v>137931.9653</v>
+        <v>5686</v>
       </c>
       <c r="G93" t="n">
-        <v>151363124.4533245</v>
+        <v>151172896.2312739</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3788,8 +4308,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3800,22 +4326,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.211</v>
+        <v>6.153</v>
       </c>
       <c r="C94" t="n">
-        <v>6.211</v>
+        <v>6.154</v>
       </c>
       <c r="D94" t="n">
-        <v>6.211</v>
+        <v>6.154</v>
       </c>
       <c r="E94" t="n">
-        <v>6.211</v>
+        <v>6.152</v>
       </c>
       <c r="F94" t="n">
-        <v>9920.588599999999</v>
+        <v>32676</v>
       </c>
       <c r="G94" t="n">
-        <v>151373045.0419245</v>
+        <v>151205572.2312739</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3824,8 +4350,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3836,22 +4368,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.207</v>
+        <v>6.154</v>
       </c>
       <c r="C95" t="n">
-        <v>6.207</v>
+        <v>6.154</v>
       </c>
       <c r="D95" t="n">
-        <v>6.207</v>
+        <v>6.154</v>
       </c>
       <c r="E95" t="n">
-        <v>6.207</v>
+        <v>6.154</v>
       </c>
       <c r="F95" t="n">
-        <v>1215.8127</v>
+        <v>16338</v>
       </c>
       <c r="G95" t="n">
-        <v>151371829.2292245</v>
+        <v>151205572.2312739</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3860,8 +4392,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3872,22 +4410,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.214</v>
+        <v>6.154</v>
       </c>
       <c r="C96" t="n">
-        <v>6.214</v>
+        <v>6.141</v>
       </c>
       <c r="D96" t="n">
-        <v>6.214</v>
+        <v>6.154</v>
       </c>
       <c r="E96" t="n">
-        <v>6.214</v>
+        <v>6.141</v>
       </c>
       <c r="F96" t="n">
-        <v>32000</v>
+        <v>17483.6383</v>
       </c>
       <c r="G96" t="n">
-        <v>151403829.2292245</v>
+        <v>151188088.5929739</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3896,8 +4434,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3908,22 +4452,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.229</v>
+        <v>6.17</v>
       </c>
       <c r="C97" t="n">
-        <v>6.283</v>
+        <v>6.17</v>
       </c>
       <c r="D97" t="n">
-        <v>6.283</v>
+        <v>6.17</v>
       </c>
       <c r="E97" t="n">
-        <v>6.229</v>
+        <v>6.17</v>
       </c>
       <c r="F97" t="n">
-        <v>712138.6796</v>
+        <v>64202.9788</v>
       </c>
       <c r="G97" t="n">
-        <v>152115967.9088245</v>
+        <v>151252291.5717739</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3932,8 +4476,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3944,22 +4494,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.283</v>
+        <v>6.196</v>
       </c>
       <c r="C98" t="n">
-        <v>6.3</v>
+        <v>6.196</v>
       </c>
       <c r="D98" t="n">
-        <v>6.3</v>
+        <v>6.196</v>
       </c>
       <c r="E98" t="n">
-        <v>6.283</v>
+        <v>6.196</v>
       </c>
       <c r="F98" t="n">
-        <v>576489.8615999999</v>
+        <v>142479.6276</v>
       </c>
       <c r="G98" t="n">
-        <v>152692457.7704245</v>
+        <v>151394771.1993739</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3968,8 +4518,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3980,22 +4536,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.299</v>
+        <v>6.196</v>
       </c>
       <c r="C99" t="n">
-        <v>6.3</v>
+        <v>6.196</v>
       </c>
       <c r="D99" t="n">
-        <v>6.3</v>
+        <v>6.196</v>
       </c>
       <c r="E99" t="n">
-        <v>6.299</v>
+        <v>6.196</v>
       </c>
       <c r="F99" t="n">
-        <v>225819.7261</v>
+        <v>19359.3434</v>
       </c>
       <c r="G99" t="n">
-        <v>152692457.7704245</v>
+        <v>151394771.1993739</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4004,8 +4560,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4016,22 +4578,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.31</v>
+        <v>6.199</v>
       </c>
       <c r="C100" t="n">
-        <v>6.347</v>
+        <v>6.2</v>
       </c>
       <c r="D100" t="n">
-        <v>6.347</v>
+        <v>6.2</v>
       </c>
       <c r="E100" t="n">
-        <v>6.31</v>
+        <v>6.199</v>
       </c>
       <c r="F100" t="n">
-        <v>122558.3832620903</v>
+        <v>79308.33990000001</v>
       </c>
       <c r="G100" t="n">
-        <v>152815016.1536866</v>
+        <v>151474079.5392739</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4040,8 +4602,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4052,22 +4620,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.349</v>
+        <v>6.172</v>
       </c>
       <c r="C101" t="n">
-        <v>6.311</v>
+        <v>6.172</v>
       </c>
       <c r="D101" t="n">
-        <v>6.349</v>
+        <v>6.172</v>
       </c>
       <c r="E101" t="n">
-        <v>6.311</v>
+        <v>6.172</v>
       </c>
       <c r="F101" t="n">
-        <v>14860.9644</v>
+        <v>39906.7486</v>
       </c>
       <c r="G101" t="n">
-        <v>152800155.1892866</v>
+        <v>151434172.7906739</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4076,8 +4644,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4088,22 +4662,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.328</v>
+        <v>6.172</v>
       </c>
       <c r="C102" t="n">
-        <v>6.328</v>
+        <v>6.172</v>
       </c>
       <c r="D102" t="n">
-        <v>6.328</v>
+        <v>6.172</v>
       </c>
       <c r="E102" t="n">
-        <v>6.328</v>
+        <v>6.172</v>
       </c>
       <c r="F102" t="n">
-        <v>4468.7108</v>
+        <v>2513.2514</v>
       </c>
       <c r="G102" t="n">
-        <v>152804623.9000866</v>
+        <v>151434172.7906739</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4112,8 +4686,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4124,22 +4704,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.312</v>
+        <v>6.145</v>
       </c>
       <c r="C103" t="n">
-        <v>6.312</v>
+        <v>6.145</v>
       </c>
       <c r="D103" t="n">
-        <v>6.312</v>
+        <v>6.145</v>
       </c>
       <c r="E103" t="n">
-        <v>6.312</v>
+        <v>6.145</v>
       </c>
       <c r="F103" t="n">
-        <v>15225.7408</v>
+        <v>306000</v>
       </c>
       <c r="G103" t="n">
-        <v>152789398.1592866</v>
+        <v>151128172.7906739</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4148,8 +4728,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4160,22 +4746,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.311</v>
+        <v>6.131</v>
       </c>
       <c r="C104" t="n">
-        <v>6.311</v>
+        <v>6.142</v>
       </c>
       <c r="D104" t="n">
-        <v>6.311</v>
+        <v>6.142</v>
       </c>
       <c r="E104" t="n">
-        <v>6.311</v>
+        <v>6.124</v>
       </c>
       <c r="F104" t="n">
-        <v>22838.6113</v>
+        <v>61276.5359</v>
       </c>
       <c r="G104" t="n">
-        <v>152766559.5479866</v>
+        <v>151066896.2547739</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4184,8 +4770,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4196,22 +4788,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.311</v>
+        <v>6.142</v>
       </c>
       <c r="C105" t="n">
-        <v>6.311</v>
+        <v>6.143</v>
       </c>
       <c r="D105" t="n">
-        <v>6.311</v>
+        <v>6.143</v>
       </c>
       <c r="E105" t="n">
-        <v>6.311</v>
+        <v>6.142</v>
       </c>
       <c r="F105" t="n">
-        <v>22838.6113</v>
+        <v>243644.3926</v>
       </c>
       <c r="G105" t="n">
-        <v>152766559.5479866</v>
+        <v>151310540.6473739</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4220,8 +4812,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4232,22 +4830,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.302</v>
+        <v>6.124</v>
       </c>
       <c r="C106" t="n">
-        <v>6.3</v>
+        <v>6.126</v>
       </c>
       <c r="D106" t="n">
-        <v>6.302</v>
+        <v>6.126</v>
       </c>
       <c r="E106" t="n">
-        <v>6.3</v>
+        <v>6.124</v>
       </c>
       <c r="F106" t="n">
-        <v>152534.7118</v>
+        <v>123761.8089</v>
       </c>
       <c r="G106" t="n">
-        <v>152614024.8361866</v>
+        <v>151186778.8384739</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4256,8 +4854,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4268,22 +4872,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.3</v>
+        <v>6.142</v>
       </c>
       <c r="C107" t="n">
-        <v>6.301</v>
+        <v>6.142</v>
       </c>
       <c r="D107" t="n">
-        <v>6.301</v>
+        <v>6.142</v>
       </c>
       <c r="E107" t="n">
-        <v>6.3</v>
+        <v>6.142</v>
       </c>
       <c r="F107" t="n">
-        <v>446242.5194</v>
+        <v>59637.1492</v>
       </c>
       <c r="G107" t="n">
-        <v>153060267.3555866</v>
+        <v>151246415.9876739</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4292,8 +4896,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4304,22 +4914,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6.301</v>
+        <v>6.127</v>
       </c>
       <c r="C108" t="n">
-        <v>6.301</v>
+        <v>6.121</v>
       </c>
       <c r="D108" t="n">
-        <v>6.301</v>
+        <v>6.127</v>
       </c>
       <c r="E108" t="n">
-        <v>6.301</v>
+        <v>6.121</v>
       </c>
       <c r="F108" t="n">
-        <v>221968.0102</v>
+        <v>35018.9589</v>
       </c>
       <c r="G108" t="n">
-        <v>153060267.3555866</v>
+        <v>151211397.0287739</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4328,8 +4938,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4340,22 +4956,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.283</v>
+        <v>6.16</v>
       </c>
       <c r="C109" t="n">
-        <v>6.283</v>
+        <v>6.16</v>
       </c>
       <c r="D109" t="n">
-        <v>6.283</v>
+        <v>6.16</v>
       </c>
       <c r="E109" t="n">
-        <v>6.283</v>
+        <v>6.16</v>
       </c>
       <c r="F109" t="n">
-        <v>21104.1371</v>
+        <v>24350.64935064935</v>
       </c>
       <c r="G109" t="n">
-        <v>153039163.2184866</v>
+        <v>151235747.6781245</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4364,8 +4980,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4376,22 +4998,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.284</v>
+        <v>6.143</v>
       </c>
       <c r="C110" t="n">
-        <v>6.284</v>
+        <v>6.143</v>
       </c>
       <c r="D110" t="n">
-        <v>6.284</v>
+        <v>6.143</v>
       </c>
       <c r="E110" t="n">
-        <v>6.284</v>
+        <v>6.143</v>
       </c>
       <c r="F110" t="n">
-        <v>22750</v>
+        <v>63285.8587</v>
       </c>
       <c r="G110" t="n">
-        <v>153061913.2184866</v>
+        <v>151172461.8194245</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4400,8 +5022,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4412,22 +5040,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.301</v>
+        <v>6.18</v>
       </c>
       <c r="C111" t="n">
-        <v>6.33</v>
+        <v>6.204</v>
       </c>
       <c r="D111" t="n">
-        <v>6.33</v>
+        <v>6.204</v>
       </c>
       <c r="E111" t="n">
-        <v>6.301</v>
+        <v>6.18</v>
       </c>
       <c r="F111" t="n">
-        <v>67002.1719</v>
+        <v>81817.3167</v>
       </c>
       <c r="G111" t="n">
-        <v>153128915.3903866</v>
+        <v>151254279.1361245</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4436,8 +5064,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4448,22 +5082,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.339</v>
+        <v>6.21</v>
       </c>
       <c r="C112" t="n">
-        <v>6.339</v>
+        <v>6.21</v>
       </c>
       <c r="D112" t="n">
-        <v>6.339</v>
+        <v>6.21</v>
       </c>
       <c r="E112" t="n">
-        <v>6.339</v>
+        <v>6.21</v>
       </c>
       <c r="F112" t="n">
-        <v>8698.922699999999</v>
+        <v>36355.0498</v>
       </c>
       <c r="G112" t="n">
-        <v>153137614.3130866</v>
+        <v>151290634.1859245</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4472,8 +5106,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4484,22 +5124,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6.339</v>
+        <v>6.227</v>
       </c>
       <c r="C113" t="n">
-        <v>6.34</v>
+        <v>6.235</v>
       </c>
       <c r="D113" t="n">
-        <v>6.36</v>
+        <v>6.235</v>
       </c>
       <c r="E113" t="n">
-        <v>6.329</v>
+        <v>6.227</v>
       </c>
       <c r="F113" t="n">
-        <v>255388.0585</v>
+        <v>116000</v>
       </c>
       <c r="G113" t="n">
-        <v>153393002.3715866</v>
+        <v>151406634.1859245</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4508,8 +5148,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4520,22 +5166,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6.371</v>
+        <v>6.26</v>
       </c>
       <c r="C114" t="n">
-        <v>6.385</v>
+        <v>6.26</v>
       </c>
       <c r="D114" t="n">
-        <v>6.385</v>
+        <v>6.26</v>
       </c>
       <c r="E114" t="n">
-        <v>6.371</v>
+        <v>6.26</v>
       </c>
       <c r="F114" t="n">
-        <v>33834.6902</v>
+        <v>1990.5205</v>
       </c>
       <c r="G114" t="n">
-        <v>153426837.0617866</v>
+        <v>151408624.7064245</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4544,8 +5190,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4556,22 +5208,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6.385</v>
+        <v>6.266</v>
       </c>
       <c r="C115" t="n">
-        <v>6.4</v>
+        <v>6.266</v>
       </c>
       <c r="D115" t="n">
-        <v>6.4</v>
+        <v>6.266</v>
       </c>
       <c r="E115" t="n">
-        <v>6.385</v>
+        <v>6.266</v>
       </c>
       <c r="F115" t="n">
-        <v>264474.4753</v>
+        <v>22920.5919</v>
       </c>
       <c r="G115" t="n">
-        <v>153691311.5370866</v>
+        <v>151431545.2983245</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4580,8 +5232,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4592,22 +5250,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6.4</v>
+        <v>6.217</v>
       </c>
       <c r="C116" t="n">
-        <v>6.4</v>
+        <v>6.214</v>
       </c>
       <c r="D116" t="n">
-        <v>6.4</v>
+        <v>6.217</v>
       </c>
       <c r="E116" t="n">
-        <v>6.4</v>
+        <v>6.214</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0003</v>
+        <v>188076</v>
       </c>
       <c r="G116" t="n">
-        <v>153691311.5370866</v>
+        <v>151243469.2983245</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4616,8 +5274,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4628,22 +5292,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>6.401</v>
+        <v>6.214</v>
       </c>
       <c r="C117" t="n">
-        <v>6.401</v>
+        <v>6.214</v>
       </c>
       <c r="D117" t="n">
-        <v>6.401</v>
+        <v>6.214</v>
       </c>
       <c r="E117" t="n">
-        <v>6.401</v>
+        <v>6.214</v>
       </c>
       <c r="F117" t="n">
-        <v>350000</v>
+        <v>317109.7837</v>
       </c>
       <c r="G117" t="n">
-        <v>154041311.5370866</v>
+        <v>151243469.2983245</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4652,8 +5316,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4664,22 +5334,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>6.402</v>
+        <v>6.201</v>
       </c>
       <c r="C118" t="n">
-        <v>6.401</v>
+        <v>6.201</v>
       </c>
       <c r="D118" t="n">
-        <v>6.402</v>
+        <v>6.201</v>
       </c>
       <c r="E118" t="n">
-        <v>6.401</v>
+        <v>6.201</v>
       </c>
       <c r="F118" t="n">
-        <v>168978.6783</v>
+        <v>10115.7813</v>
       </c>
       <c r="G118" t="n">
-        <v>154041311.5370866</v>
+        <v>151233353.5170245</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4688,8 +5358,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4700,22 +5376,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>6.394</v>
+        <v>6.182</v>
       </c>
       <c r="C119" t="n">
-        <v>6.396</v>
+        <v>6.162</v>
       </c>
       <c r="D119" t="n">
-        <v>6.396</v>
+        <v>6.182</v>
       </c>
       <c r="E119" t="n">
-        <v>6.394</v>
+        <v>6.162</v>
       </c>
       <c r="F119" t="n">
-        <v>251000</v>
+        <v>200000</v>
       </c>
       <c r="G119" t="n">
-        <v>153790311.5370866</v>
+        <v>151033353.5170245</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4724,8 +5400,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4736,22 +5418,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>6.4</v>
+        <v>6.171</v>
       </c>
       <c r="C120" t="n">
-        <v>6.42</v>
+        <v>6.171</v>
       </c>
       <c r="D120" t="n">
-        <v>6.42</v>
+        <v>6.171</v>
       </c>
       <c r="E120" t="n">
-        <v>6.4</v>
+        <v>6.171</v>
       </c>
       <c r="F120" t="n">
-        <v>36216.8912</v>
+        <v>30000</v>
       </c>
       <c r="G120" t="n">
-        <v>153826528.4282866</v>
+        <v>151063353.5170245</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4760,8 +5442,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4772,32 +5460,38 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.42</v>
+        <v>6.183</v>
       </c>
       <c r="C121" t="n">
-        <v>6.45</v>
+        <v>6.183</v>
       </c>
       <c r="D121" t="n">
-        <v>6.45</v>
+        <v>6.183</v>
       </c>
       <c r="E121" t="n">
-        <v>6.42</v>
+        <v>6.183</v>
       </c>
       <c r="F121" t="n">
-        <v>328201.1498</v>
+        <v>161838.971</v>
       </c>
       <c r="G121" t="n">
-        <v>154154729.5780866</v>
+        <v>151225192.4880245</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4808,32 +5502,38 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>6.44</v>
+        <v>6.2</v>
       </c>
       <c r="C122" t="n">
-        <v>6.45</v>
+        <v>6.201</v>
       </c>
       <c r="D122" t="n">
-        <v>6.45</v>
+        <v>6.201</v>
       </c>
       <c r="E122" t="n">
-        <v>6.44</v>
+        <v>6.2</v>
       </c>
       <c r="F122" t="n">
-        <v>309984.5495</v>
+        <v>137931.9653</v>
       </c>
       <c r="G122" t="n">
-        <v>154154729.5780866</v>
+        <v>151363124.4533245</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4844,32 +5544,38 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6.45</v>
+        <v>6.211</v>
       </c>
       <c r="C123" t="n">
-        <v>6.45</v>
+        <v>6.211</v>
       </c>
       <c r="D123" t="n">
-        <v>6.45</v>
+        <v>6.211</v>
       </c>
       <c r="E123" t="n">
-        <v>6.45</v>
+        <v>6.211</v>
       </c>
       <c r="F123" t="n">
-        <v>305881.7019</v>
+        <v>9920.588599999999</v>
       </c>
       <c r="G123" t="n">
-        <v>154154729.5780866</v>
+        <v>151373045.0419245</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4880,32 +5586,38 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>6.43</v>
+        <v>6.207</v>
       </c>
       <c r="C124" t="n">
-        <v>6.42</v>
+        <v>6.207</v>
       </c>
       <c r="D124" t="n">
-        <v>6.43</v>
+        <v>6.207</v>
       </c>
       <c r="E124" t="n">
-        <v>6.42</v>
+        <v>6.207</v>
       </c>
       <c r="F124" t="n">
-        <v>273137.4455</v>
+        <v>1215.8127</v>
       </c>
       <c r="G124" t="n">
-        <v>153881592.1325866</v>
+        <v>151371829.2292245</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4916,32 +5628,38 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>6.421</v>
+        <v>6.214</v>
       </c>
       <c r="C125" t="n">
-        <v>6.421</v>
+        <v>6.214</v>
       </c>
       <c r="D125" t="n">
-        <v>6.421</v>
+        <v>6.214</v>
       </c>
       <c r="E125" t="n">
-        <v>6.421</v>
+        <v>6.214</v>
       </c>
       <c r="F125" t="n">
-        <v>17903.8081</v>
+        <v>32000</v>
       </c>
       <c r="G125" t="n">
-        <v>153899495.9406866</v>
+        <v>151403829.2292245</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4952,32 +5670,38 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>6.433</v>
+        <v>6.229</v>
       </c>
       <c r="C126" t="n">
-        <v>6.42</v>
+        <v>6.283</v>
       </c>
       <c r="D126" t="n">
-        <v>6.47</v>
+        <v>6.283</v>
       </c>
       <c r="E126" t="n">
-        <v>6.42</v>
+        <v>6.229</v>
       </c>
       <c r="F126" t="n">
-        <v>1263473.0502</v>
+        <v>712138.6796</v>
       </c>
       <c r="G126" t="n">
-        <v>152636022.8904866</v>
+        <v>152115967.9088245</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4988,32 +5712,38 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>6.42</v>
+        <v>6.283</v>
       </c>
       <c r="C127" t="n">
-        <v>6.42</v>
+        <v>6.3</v>
       </c>
       <c r="D127" t="n">
-        <v>6.42</v>
+        <v>6.3</v>
       </c>
       <c r="E127" t="n">
-        <v>6.42</v>
+        <v>6.283</v>
       </c>
       <c r="F127" t="n">
-        <v>29840.2999</v>
+        <v>576489.8615999999</v>
       </c>
       <c r="G127" t="n">
-        <v>152636022.8904866</v>
+        <v>152692457.7704245</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5024,32 +5754,38 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>6.42</v>
+        <v>6.299</v>
       </c>
       <c r="C128" t="n">
-        <v>6.42</v>
+        <v>6.3</v>
       </c>
       <c r="D128" t="n">
-        <v>6.42</v>
+        <v>6.3</v>
       </c>
       <c r="E128" t="n">
-        <v>6.42</v>
+        <v>6.299</v>
       </c>
       <c r="F128" t="n">
-        <v>132.8283</v>
+        <v>225819.7261</v>
       </c>
       <c r="G128" t="n">
-        <v>152636022.8904866</v>
+        <v>152692457.7704245</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5060,36 +5796,1194 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="C129" t="n">
+        <v>6.347</v>
+      </c>
+      <c r="D129" t="n">
+        <v>6.347</v>
+      </c>
+      <c r="E129" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="F129" t="n">
+        <v>122558.3832620903</v>
+      </c>
+      <c r="G129" t="n">
+        <v>152815016.1536866</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6.349</v>
+      </c>
+      <c r="C130" t="n">
+        <v>6.311</v>
+      </c>
+      <c r="D130" t="n">
+        <v>6.349</v>
+      </c>
+      <c r="E130" t="n">
+        <v>6.311</v>
+      </c>
+      <c r="F130" t="n">
+        <v>14860.9644</v>
+      </c>
+      <c r="G130" t="n">
+        <v>152800155.1892866</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6.328</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6.328</v>
+      </c>
+      <c r="D131" t="n">
+        <v>6.328</v>
+      </c>
+      <c r="E131" t="n">
+        <v>6.328</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4468.7108</v>
+      </c>
+      <c r="G131" t="n">
+        <v>152804623.9000866</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6.312</v>
+      </c>
+      <c r="C132" t="n">
+        <v>6.312</v>
+      </c>
+      <c r="D132" t="n">
+        <v>6.312</v>
+      </c>
+      <c r="E132" t="n">
+        <v>6.312</v>
+      </c>
+      <c r="F132" t="n">
+        <v>15225.7408</v>
+      </c>
+      <c r="G132" t="n">
+        <v>152789398.1592866</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>6.311</v>
+      </c>
+      <c r="C133" t="n">
+        <v>6.311</v>
+      </c>
+      <c r="D133" t="n">
+        <v>6.311</v>
+      </c>
+      <c r="E133" t="n">
+        <v>6.311</v>
+      </c>
+      <c r="F133" t="n">
+        <v>22838.6113</v>
+      </c>
+      <c r="G133" t="n">
+        <v>152766559.5479866</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>6.311</v>
+      </c>
+      <c r="C134" t="n">
+        <v>6.311</v>
+      </c>
+      <c r="D134" t="n">
+        <v>6.311</v>
+      </c>
+      <c r="E134" t="n">
+        <v>6.311</v>
+      </c>
+      <c r="F134" t="n">
+        <v>22838.6113</v>
+      </c>
+      <c r="G134" t="n">
+        <v>152766559.5479866</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6.302</v>
+      </c>
+      <c r="C135" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D135" t="n">
+        <v>6.302</v>
+      </c>
+      <c r="E135" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F135" t="n">
+        <v>152534.7118</v>
+      </c>
+      <c r="G135" t="n">
+        <v>152614024.8361866</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C136" t="n">
+        <v>6.301</v>
+      </c>
+      <c r="D136" t="n">
+        <v>6.301</v>
+      </c>
+      <c r="E136" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F136" t="n">
+        <v>446242.5194</v>
+      </c>
+      <c r="G136" t="n">
+        <v>153060267.3555866</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>6.301</v>
+      </c>
+      <c r="C137" t="n">
+        <v>6.301</v>
+      </c>
+      <c r="D137" t="n">
+        <v>6.301</v>
+      </c>
+      <c r="E137" t="n">
+        <v>6.301</v>
+      </c>
+      <c r="F137" t="n">
+        <v>221968.0102</v>
+      </c>
+      <c r="G137" t="n">
+        <v>153060267.3555866</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>6.283</v>
+      </c>
+      <c r="C138" t="n">
+        <v>6.283</v>
+      </c>
+      <c r="D138" t="n">
+        <v>6.283</v>
+      </c>
+      <c r="E138" t="n">
+        <v>6.283</v>
+      </c>
+      <c r="F138" t="n">
+        <v>21104.1371</v>
+      </c>
+      <c r="G138" t="n">
+        <v>153039163.2184866</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>6.284</v>
+      </c>
+      <c r="C139" t="n">
+        <v>6.284</v>
+      </c>
+      <c r="D139" t="n">
+        <v>6.284</v>
+      </c>
+      <c r="E139" t="n">
+        <v>6.284</v>
+      </c>
+      <c r="F139" t="n">
+        <v>22750</v>
+      </c>
+      <c r="G139" t="n">
+        <v>153061913.2184866</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>6.301</v>
+      </c>
+      <c r="C140" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="D140" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="E140" t="n">
+        <v>6.301</v>
+      </c>
+      <c r="F140" t="n">
+        <v>67002.1719</v>
+      </c>
+      <c r="G140" t="n">
+        <v>153128915.3903866</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6.339</v>
+      </c>
+      <c r="C141" t="n">
+        <v>6.339</v>
+      </c>
+      <c r="D141" t="n">
+        <v>6.339</v>
+      </c>
+      <c r="E141" t="n">
+        <v>6.339</v>
+      </c>
+      <c r="F141" t="n">
+        <v>8698.922699999999</v>
+      </c>
+      <c r="G141" t="n">
+        <v>153137614.3130866</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>6.339</v>
+      </c>
+      <c r="C142" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="D142" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="E142" t="n">
+        <v>6.329</v>
+      </c>
+      <c r="F142" t="n">
+        <v>255388.0585</v>
+      </c>
+      <c r="G142" t="n">
+        <v>153393002.3715866</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>6.371</v>
+      </c>
+      <c r="C143" t="n">
+        <v>6.385</v>
+      </c>
+      <c r="D143" t="n">
+        <v>6.385</v>
+      </c>
+      <c r="E143" t="n">
+        <v>6.371</v>
+      </c>
+      <c r="F143" t="n">
+        <v>33834.6902</v>
+      </c>
+      <c r="G143" t="n">
+        <v>153426837.0617866</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>6.385</v>
+      </c>
+      <c r="C144" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D144" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E144" t="n">
+        <v>6.385</v>
+      </c>
+      <c r="F144" t="n">
+        <v>264474.4753</v>
+      </c>
+      <c r="G144" t="n">
+        <v>153691311.5370866</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C145" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D145" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E145" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="G145" t="n">
+        <v>153691311.5370866</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6.401</v>
+      </c>
+      <c r="C146" t="n">
+        <v>6.401</v>
+      </c>
+      <c r="D146" t="n">
+        <v>6.401</v>
+      </c>
+      <c r="E146" t="n">
+        <v>6.401</v>
+      </c>
+      <c r="F146" t="n">
+        <v>350000</v>
+      </c>
+      <c r="G146" t="n">
+        <v>154041311.5370866</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>6.402</v>
+      </c>
+      <c r="C147" t="n">
+        <v>6.401</v>
+      </c>
+      <c r="D147" t="n">
+        <v>6.402</v>
+      </c>
+      <c r="E147" t="n">
+        <v>6.401</v>
+      </c>
+      <c r="F147" t="n">
+        <v>168978.6783</v>
+      </c>
+      <c r="G147" t="n">
+        <v>154041311.5370866</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1.036829427083333</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>6.394</v>
+      </c>
+      <c r="C148" t="n">
+        <v>6.396</v>
+      </c>
+      <c r="D148" t="n">
+        <v>6.396</v>
+      </c>
+      <c r="E148" t="n">
+        <v>6.394</v>
+      </c>
+      <c r="F148" t="n">
+        <v>251000</v>
+      </c>
+      <c r="G148" t="n">
+        <v>153790311.5370866</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C149" t="n">
         <v>6.42</v>
       </c>
-      <c r="C129" t="n">
+      <c r="D149" t="n">
         <v>6.42</v>
       </c>
-      <c r="D129" t="n">
+      <c r="E149" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F149" t="n">
+        <v>36216.8912</v>
+      </c>
+      <c r="G149" t="n">
+        <v>153826528.4282866</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
         <v>6.42</v>
       </c>
-      <c r="E129" t="n">
+      <c r="C150" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="D150" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="E150" t="n">
         <v>6.42</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F150" t="n">
+        <v>328201.1498</v>
+      </c>
+      <c r="G150" t="n">
+        <v>154154729.5780866</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="C151" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="D151" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="E151" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="F151" t="n">
+        <v>309984.5495</v>
+      </c>
+      <c r="G151" t="n">
+        <v>154154729.5780866</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="C152" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="D152" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="E152" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F152" t="n">
+        <v>305881.7019</v>
+      </c>
+      <c r="G152" t="n">
+        <v>154154729.5780866</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="C153" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="D153" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="E153" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F153" t="n">
+        <v>273137.4455</v>
+      </c>
+      <c r="G153" t="n">
+        <v>153881592.1325866</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>6.421</v>
+      </c>
+      <c r="C154" t="n">
+        <v>6.421</v>
+      </c>
+      <c r="D154" t="n">
+        <v>6.421</v>
+      </c>
+      <c r="E154" t="n">
+        <v>6.421</v>
+      </c>
+      <c r="F154" t="n">
+        <v>17903.8081</v>
+      </c>
+      <c r="G154" t="n">
+        <v>153899495.9406866</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6.433</v>
+      </c>
+      <c r="C155" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="D155" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="E155" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1263473.0502</v>
+      </c>
+      <c r="G155" t="n">
+        <v>152636022.8904866</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="C156" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="D156" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="E156" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F156" t="n">
+        <v>29840.2999</v>
+      </c>
+      <c r="G156" t="n">
+        <v>152636022.8904866</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="C157" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="D157" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="E157" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F157" t="n">
+        <v>132.8283</v>
+      </c>
+      <c r="G157" t="n">
+        <v>152636022.8904866</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="C158" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="D158" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="E158" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="F158" t="n">
         <v>39963.9774</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G158" t="n">
         <v>152636022.8904866</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest VET.xlsx
+++ b/BackTest/2020-01-15 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N158"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>108172.7568</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,15 @@
         <v>374263.7830000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>6.142</v>
-      </c>
-      <c r="K3" t="n">
-        <v>6.142</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +517,15 @@
         <v>710003.3350000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6.143</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6.142</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +550,15 @@
         <v>710003.3350000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6.142</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +583,15 @@
         <v>710003.3350000001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +616,15 @@
         <v>710003.3350000001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,26 +649,15 @@
         <v>4079838.333</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,26 +682,15 @@
         <v>4079838.333</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -794,22 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -834,26 +748,15 @@
         <v>3807036.7369</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K11" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -878,26 +781,15 @@
         <v>3839769.9611</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>6.131</v>
-      </c>
-      <c r="K12" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -922,26 +814,15 @@
         <v>3799769.9611</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6.132</v>
-      </c>
-      <c r="K13" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -966,26 +847,15 @@
         <v>3799928.4768</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6.102</v>
-      </c>
-      <c r="K14" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1010,26 +880,15 @@
         <v>3759928.4768</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>6.131</v>
-      </c>
-      <c r="K15" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1054,26 +913,15 @@
         <v>3759928.4768</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1098,26 +946,15 @@
         <v>3899636.4768</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1142,26 +979,15 @@
         <v>3859636.4768</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>6.121</v>
-      </c>
-      <c r="K18" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1186,26 +1012,15 @@
         <v>3956896.0429</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1230,26 +1045,15 @@
         <v>3956896.0429</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="K20" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1274,26 +1078,15 @@
         <v>3932825.6812</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="K21" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1318,26 +1111,15 @@
         <v>152065646.4305</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1364,22 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1406,22 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1448,22 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1490,22 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1532,22 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1574,22 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1616,22 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1658,22 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1698,24 +1408,19 @@
         <v>151873444.1324</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>6.086</v>
+      </c>
+      <c r="J31" t="n">
+        <v>6.086</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1740,24 +1445,23 @@
         <v>151873444.1324</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>6.086</v>
+      </c>
+      <c r="J32" t="n">
+        <v>6.086</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1782,24 +1486,23 @@
         <v>151873444.1324</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>6.086</v>
+      </c>
+      <c r="J33" t="n">
+        <v>6.086</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1824,24 +1527,19 @@
         <v>151873444.1324</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>6.086</v>
+      </c>
+      <c r="J34" t="n">
+        <v>6.086</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1866,24 +1564,23 @@
         <v>151878444.1324</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>6.086</v>
+      </c>
+      <c r="J35" t="n">
+        <v>6.086</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1910,22 +1607,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>6.086</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1952,22 +1646,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1994,22 +1679,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2036,22 +1712,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2078,22 +1745,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2120,22 +1778,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2162,22 +1811,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2204,22 +1844,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2246,22 +1877,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2288,22 +1910,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2330,22 +1943,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2372,22 +1976,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2414,22 +2009,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2456,22 +2042,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2498,22 +2075,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2540,22 +2108,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2582,22 +2141,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2624,22 +2174,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2666,22 +2207,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2708,22 +2240,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2750,22 +2273,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2792,22 +2306,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2834,22 +2339,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2876,22 +2372,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2918,22 +2405,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2960,22 +2438,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3002,22 +2471,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3044,22 +2504,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3086,22 +2537,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3128,22 +2570,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3170,22 +2603,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3212,22 +2636,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3254,22 +2669,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3294,24 +2700,19 @@
         <v>151351040.1145</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>6.12</v>
+      </c>
+      <c r="J69" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3338,22 +2739,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3380,22 +2778,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3422,22 +2817,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3464,22 +2856,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3506,22 +2895,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L74" t="inlineStr">
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3548,22 +2934,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3590,22 +2973,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3632,22 +3012,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3672,24 +3049,23 @@
         <v>151394608.7773739</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L78" t="inlineStr">
+        <v>6.084</v>
+      </c>
+      <c r="J78" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3714,24 +3090,23 @@
         <v>151144278.2276739</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L79" t="inlineStr">
+        <v>6.116</v>
+      </c>
+      <c r="J79" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3756,24 +3131,23 @@
         <v>151136525.9020739</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L80" t="inlineStr">
+        <v>6.115</v>
+      </c>
+      <c r="J80" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3798,24 +3172,23 @@
         <v>151176390.9404739</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L81" t="inlineStr">
+        <v>6.114</v>
+      </c>
+      <c r="J81" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3840,24 +3213,23 @@
         <v>151176390.9404739</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L82" t="inlineStr">
+        <v>6.117</v>
+      </c>
+      <c r="J82" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3884,22 +3256,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3926,22 +3295,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3968,22 +3334,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4010,22 +3373,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4052,22 +3412,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L87" t="inlineStr">
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4094,22 +3451,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4136,22 +3490,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4178,22 +3529,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4220,22 +3568,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L91" t="inlineStr">
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4262,22 +3607,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4304,22 +3646,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4346,22 +3685,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4388,22 +3724,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4430,22 +3763,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4472,22 +3802,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4514,22 +3841,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4556,22 +3880,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4598,22 +3919,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4640,22 +3958,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4682,22 +3997,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4724,22 +4036,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4766,22 +4075,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4808,22 +4114,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4850,22 +4153,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4892,22 +4192,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4934,22 +4231,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4976,22 +4270,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5018,22 +4309,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5060,22 +4348,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5102,22 +4387,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5144,22 +4426,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5186,22 +4465,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5228,22 +4504,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5270,22 +4543,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5312,22 +4582,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5354,22 +4621,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5396,22 +4660,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5438,22 +4699,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5480,22 +4738,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5522,22 +4777,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5564,22 +4816,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5606,22 +4855,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5648,22 +4894,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5690,22 +4933,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5732,22 +4972,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5774,22 +5011,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5814,24 +5048,21 @@
         <v>152815016.1536866</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1.032091503267974</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5856,24 +5087,15 @@
         <v>152800155.1892866</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5900,22 +5122,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5942,22 +5155,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5984,22 +5188,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6026,22 +5221,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6068,22 +5254,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6110,22 +5287,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6152,22 +5320,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6194,22 +5353,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6236,22 +5386,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6278,22 +5419,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6320,22 +5452,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6360,24 +5483,15 @@
         <v>153393002.3715866</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6402,24 +5516,15 @@
         <v>153426837.0617866</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6444,24 +5549,15 @@
         <v>153691311.5370866</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6486,24 +5582,15 @@
         <v>153691311.5370866</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6528,24 +5615,15 @@
         <v>154041311.5370866</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6570,24 +5648,15 @@
         <v>154041311.5370866</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1.036829427083333</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6612,18 +5681,15 @@
         <v>153790311.5370866</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6648,18 +5714,15 @@
         <v>153826528.4282866</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6684,18 +5747,15 @@
         <v>154154729.5780866</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6720,18 +5780,15 @@
         <v>154154729.5780866</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6756,18 +5813,15 @@
         <v>154154729.5780866</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6792,18 +5846,15 @@
         <v>153881592.1325866</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6828,18 +5879,15 @@
         <v>153899495.9406866</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6866,16 +5914,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6900,18 +5945,15 @@
         <v>152636022.8904866</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6936,18 +5978,15 @@
         <v>152636022.8904866</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6972,20 +6011,17 @@
         <v>152636022.8904866</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest VET.xlsx
+++ b/BackTest/2020-01-15 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>108172.7568</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>374263.7830000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.142</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6.142</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>710003.3350000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.143</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.142</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>710003.3350000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.142</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>710003.3350000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.144</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>710003.3350000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>4079838.333</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +722,19 @@
         <v>4079838.333</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +763,19 @@
         <v>4079838.333</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +804,19 @@
         <v>3807036.7369</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +845,19 @@
         <v>3839769.9611</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.131</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +886,19 @@
         <v>3799769.9611</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6.132</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +927,19 @@
         <v>3799928.4768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.102</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +968,19 @@
         <v>3759928.4768</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.131</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1009,19 @@
         <v>3759928.4768</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1050,19 @@
         <v>3899636.4768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1091,19 @@
         <v>3859636.4768</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6.121</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1132,19 @@
         <v>3956896.0429</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1173,19 @@
         <v>3956896.0429</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1214,19 @@
         <v>3932825.6812</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1255,19 @@
         <v>152065646.4305</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1299,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1338,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1377,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1416,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1455,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1494,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1533,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1569,19 @@
         <v>151873444.1324</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6.086</v>
+      </c>
+      <c r="J30" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,15 +1610,19 @@
         <v>151873444.1324</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>6.086</v>
       </c>
       <c r="J31" t="n">
-        <v>6.086</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+        <v>6.144</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,17 +1651,17 @@
         <v>151873444.1324</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>6.086</v>
       </c>
       <c r="J32" t="n">
-        <v>6.086</v>
+        <v>6.144</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -1486,17 +1692,17 @@
         <v>151873444.1324</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>6.086</v>
       </c>
       <c r="J33" t="n">
-        <v>6.086</v>
+        <v>6.144</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1527,15 +1733,17 @@
         <v>151873444.1324</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>6.086</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>6.086</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+        <v>6.144</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1564,17 +1772,15 @@
         <v>151878444.1324</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>6.086</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>6.086</v>
+        <v>6.144</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1609,11 +1815,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>6.086</v>
+        <v>6.144</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -1647,8 +1853,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1680,8 +1892,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1713,8 +1931,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1746,8 +1970,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1779,8 +2009,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1812,8 +2048,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1845,8 +2087,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1878,8 +2126,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1911,8 +2165,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1944,8 +2204,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1977,8 +2243,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2010,8 +2282,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2043,8 +2321,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2076,8 +2360,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2109,8 +2399,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2142,8 +2438,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2175,8 +2477,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2208,8 +2516,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2241,8 +2555,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2274,8 +2594,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2307,8 +2633,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2340,8 +2672,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2373,8 +2711,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2406,8 +2750,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2439,8 +2789,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2472,8 +2828,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2505,8 +2867,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2538,8 +2906,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2571,8 +2945,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2604,8 +2984,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2637,8 +3023,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2670,8 +3062,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2700,15 +3098,17 @@
         <v>151351040.1145</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>6.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
+        <v>6.144</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2741,11 +3141,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -2780,11 +3180,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -2819,7 +3219,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2858,7 +3258,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2897,7 +3297,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -2936,7 +3336,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -2975,7 +3375,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3014,7 +3414,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3049,13 +3449,11 @@
         <v>151394608.7773739</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>6.084</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3090,13 +3488,11 @@
         <v>151144278.2276739</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6.116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3131,13 +3527,11 @@
         <v>151136525.9020739</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>6.115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3172,13 +3566,11 @@
         <v>151176390.9404739</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>6.114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3213,13 +3605,11 @@
         <v>151176390.9404739</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>6.117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3258,7 +3648,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3297,7 +3687,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3336,7 +3726,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3375,7 +3765,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3414,7 +3804,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3453,7 +3843,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3492,7 +3882,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3531,7 +3921,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3570,7 +3960,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3609,7 +3999,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3648,7 +4038,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3687,7 +4077,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3726,7 +4116,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3765,7 +4155,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3804,7 +4194,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3843,7 +4233,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3882,7 +4272,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3921,7 +4311,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3960,7 +4350,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3999,7 +4389,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4038,7 +4428,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4077,7 +4467,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4116,7 +4506,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4155,7 +4545,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4194,7 +4584,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4233,7 +4623,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4272,7 +4662,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4311,7 +4701,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4350,7 +4740,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4385,19 +4775,19 @@
         <v>151290634.1859245</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>6.12</v>
+        <v>6.144</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1</v>
+        <v>1.0057421875</v>
       </c>
       <c r="M112" t="inlineStr"/>
     </row>
@@ -4424,17 +4814,11 @@
         <v>151406634.1859245</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4463,17 +4847,11 @@
         <v>151408624.7064245</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4502,17 +4880,11 @@
         <v>151431545.2983245</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4541,17 +4913,11 @@
         <v>151243469.2983245</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4580,17 +4946,11 @@
         <v>151243469.2983245</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4619,17 +4979,11 @@
         <v>151233353.5170245</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4658,17 +5012,11 @@
         <v>151033353.5170245</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4697,17 +5045,11 @@
         <v>151063353.5170245</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4736,17 +5078,11 @@
         <v>151225192.4880245</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4775,17 +5111,11 @@
         <v>151363124.4533245</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4814,17 +5144,11 @@
         <v>151373045.0419245</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4853,17 +5177,11 @@
         <v>151371829.2292245</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4892,17 +5210,11 @@
         <v>151403829.2292245</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4931,17 +5243,11 @@
         <v>152115967.9088245</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4970,17 +5276,11 @@
         <v>152692457.7704245</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5009,17 +5309,11 @@
         <v>152692457.7704245</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5048,19 +5342,13 @@
         <v>152815016.1536866</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>1.032091503267974</v>
+        <v>1</v>
       </c>
       <c r="M129" t="inlineStr"/>
     </row>
@@ -5087,7 +5375,7 @@
         <v>152800155.1892866</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5120,7 +5408,7 @@
         <v>152804623.9000866</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5153,7 +5441,7 @@
         <v>152789398.1592866</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5186,7 +5474,7 @@
         <v>152766559.5479866</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5219,7 +5507,7 @@
         <v>152766559.5479866</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5252,7 +5540,7 @@
         <v>152614024.8361866</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5285,7 +5573,7 @@
         <v>153060267.3555866</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5318,7 +5606,7 @@
         <v>153060267.3555866</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5351,7 +5639,7 @@
         <v>153039163.2184866</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5384,7 +5672,7 @@
         <v>153061913.2184866</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5417,7 +5705,7 @@
         <v>153128915.3903866</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5450,7 +5738,7 @@
         <v>153137614.3130866</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5483,7 +5771,7 @@
         <v>153393002.3715866</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5516,7 +5804,7 @@
         <v>153426837.0617866</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5549,7 +5837,7 @@
         <v>153691311.5370866</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5582,7 +5870,7 @@
         <v>153691311.5370866</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5615,7 +5903,7 @@
         <v>154041311.5370866</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5648,7 +5936,7 @@
         <v>154041311.5370866</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5681,7 +5969,7 @@
         <v>153790311.5370866</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5714,7 +6002,7 @@
         <v>153826528.4282866</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5747,7 +6035,7 @@
         <v>154154729.5780866</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5780,7 +6068,7 @@
         <v>154154729.5780866</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5813,7 +6101,7 @@
         <v>154154729.5780866</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5846,7 +6134,7 @@
         <v>153881592.1325866</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5879,7 +6167,7 @@
         <v>153899495.9406866</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5912,7 +6200,7 @@
         <v>152636022.8904866</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5945,7 +6233,7 @@
         <v>152636022.8904866</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5978,7 +6266,7 @@
         <v>152636022.8904866</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6011,7 +6299,7 @@
         <v>152636022.8904866</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6022,6 +6310,6 @@
       <c r="M158" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest VET.xlsx
+++ b/BackTest/2020-01-15 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -521,11 +521,9 @@
         <v>710003.3350000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6.143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>6.142</v>
       </c>
@@ -562,11 +560,9 @@
         <v>710003.3350000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>6.142</v>
       </c>
@@ -681,11 +677,9 @@
         <v>4079838.333</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>6.144</v>
       </c>
@@ -722,11 +716,9 @@
         <v>4079838.333</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>6.144</v>
       </c>
@@ -763,11 +755,9 @@
         <v>4079838.333</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>6.144</v>
       </c>
@@ -804,11 +794,9 @@
         <v>3807036.7369</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>6.144</v>
       </c>
@@ -845,11 +833,9 @@
         <v>3839769.9611</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6.131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>6.144</v>
       </c>
@@ -886,11 +872,9 @@
         <v>3799769.9611</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6.132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>6.144</v>
       </c>
@@ -927,11 +911,9 @@
         <v>3799928.4768</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6.102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>6.144</v>
       </c>
@@ -968,11 +950,9 @@
         <v>3759928.4768</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6.131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>6.144</v>
       </c>
@@ -1214,11 +1194,9 @@
         <v>3932825.6812</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>6.144</v>
       </c>
@@ -1569,11 +1547,9 @@
         <v>151873444.1324</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>6.086</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>6.144</v>
       </c>
@@ -1610,11 +1586,9 @@
         <v>151873444.1324</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>6.086</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>6.144</v>
       </c>
@@ -1651,11 +1625,9 @@
         <v>151873444.1324</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>6.086</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>6.144</v>
       </c>
@@ -1692,11 +1664,9 @@
         <v>151873444.1324</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>6.086</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>6.144</v>
       </c>
@@ -4775,7 +4745,7 @@
         <v>151290634.1859245</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
@@ -4783,11 +4753,11 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.0057421875</v>
+        <v>1</v>
       </c>
       <c r="M112" t="inlineStr"/>
     </row>
@@ -4814,11 +4784,17 @@
         <v>151406634.1859245</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4847,11 +4823,17 @@
         <v>151408624.7064245</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4880,11 +4862,17 @@
         <v>151431545.2983245</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4916,10 +4904,16 @@
         <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L116" t="n">
-        <v>1</v>
+        <v>1.006393229166667</v>
       </c>
       <c r="M116" t="inlineStr"/>
     </row>
@@ -4946,7 +4940,7 @@
         <v>151243469.2983245</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -5012,7 +5006,7 @@
         <v>151033353.5170245</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -5045,7 +5039,7 @@
         <v>151063353.5170245</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5078,7 +5072,7 @@
         <v>151225192.4880245</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5111,7 +5105,7 @@
         <v>151363124.4533245</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5210,7 +5204,7 @@
         <v>151403829.2292245</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5243,7 +5237,7 @@
         <v>152115967.9088245</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5276,7 +5270,7 @@
         <v>152692457.7704245</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5870,7 +5864,7 @@
         <v>153691311.5370866</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5903,7 +5897,7 @@
         <v>154041311.5370866</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5936,7 +5930,7 @@
         <v>154041311.5370866</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5969,7 +5963,7 @@
         <v>153790311.5370866</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6002,7 +5996,7 @@
         <v>153826528.4282866</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6068,7 +6062,7 @@
         <v>154154729.5780866</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6101,7 +6095,7 @@
         <v>154154729.5780866</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6134,7 +6128,7 @@
         <v>153881592.1325866</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6167,7 +6161,7 @@
         <v>153899495.9406866</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6200,7 +6194,7 @@
         <v>152636022.8904866</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6233,7 +6227,7 @@
         <v>152636022.8904866</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6266,7 +6260,7 @@
         <v>152636022.8904866</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6299,7 +6293,7 @@
         <v>152636022.8904866</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6310,6 +6304,6 @@
       <c r="M158" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest VET.xlsx
+++ b/BackTest/2020-01-15 BackTest VET.xlsx
@@ -521,9 +521,11 @@
         <v>710003.3350000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.143</v>
+      </c>
       <c r="J4" t="n">
         <v>6.142</v>
       </c>
@@ -560,9 +562,11 @@
         <v>710003.3350000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.144</v>
+      </c>
       <c r="J5" t="n">
         <v>6.142</v>
       </c>
@@ -677,9 +681,11 @@
         <v>4079838.333</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.144</v>
+      </c>
       <c r="J8" t="n">
         <v>6.144</v>
       </c>
@@ -716,9 +722,11 @@
         <v>4079838.333</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.18</v>
+      </c>
       <c r="J9" t="n">
         <v>6.144</v>
       </c>
@@ -755,9 +763,11 @@
         <v>4079838.333</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.18</v>
+      </c>
       <c r="J10" t="n">
         <v>6.144</v>
       </c>
@@ -794,9 +804,11 @@
         <v>3807036.7369</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.18</v>
+      </c>
       <c r="J11" t="n">
         <v>6.144</v>
       </c>
@@ -833,9 +845,11 @@
         <v>3839769.9611</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.131</v>
+      </c>
       <c r="J12" t="n">
         <v>6.144</v>
       </c>
@@ -872,9 +886,11 @@
         <v>3799769.9611</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6.132</v>
+      </c>
       <c r="J13" t="n">
         <v>6.144</v>
       </c>
@@ -911,9 +927,11 @@
         <v>3799928.4768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.102</v>
+      </c>
       <c r="J14" t="n">
         <v>6.144</v>
       </c>
@@ -950,9 +968,11 @@
         <v>3759928.4768</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.131</v>
+      </c>
       <c r="J15" t="n">
         <v>6.144</v>
       </c>
@@ -1194,9 +1214,11 @@
         <v>3932825.6812</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6.13</v>
+      </c>
       <c r="J21" t="n">
         <v>6.144</v>
       </c>
@@ -4901,7 +4923,7 @@
         <v>151243469.2983245</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
@@ -4909,11 +4931,11 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.006393229166667</v>
+        <v>1</v>
       </c>
       <c r="M116" t="inlineStr"/>
     </row>
@@ -4943,8 +4965,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4973,11 +5001,17 @@
         <v>151233353.5170245</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5009,8 +5043,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5042,8 +5082,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5075,8 +5121,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5108,8 +5160,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5138,11 +5196,17 @@
         <v>151373045.0419245</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5171,11 +5235,17 @@
         <v>151371829.2292245</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5207,8 +5277,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5240,8 +5316,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5273,8 +5355,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5303,11 +5391,17 @@
         <v>152692457.7704245</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5336,11 +5430,17 @@
         <v>152815016.1536866</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5369,11 +5469,17 @@
         <v>152800155.1892866</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5402,11 +5508,17 @@
         <v>152804623.9000866</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5435,11 +5547,17 @@
         <v>152789398.1592866</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5468,11 +5586,17 @@
         <v>152766559.5479866</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5501,11 +5625,17 @@
         <v>152766559.5479866</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5534,11 +5664,17 @@
         <v>152614024.8361866</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5567,11 +5703,17 @@
         <v>153060267.3555866</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5600,11 +5742,17 @@
         <v>153060267.3555866</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5633,11 +5781,17 @@
         <v>153039163.2184866</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5666,11 +5820,17 @@
         <v>153061913.2184866</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5699,11 +5859,17 @@
         <v>153128915.3903866</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5732,11 +5898,17 @@
         <v>153137614.3130866</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5765,11 +5937,17 @@
         <v>153393002.3715866</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5798,11 +5976,17 @@
         <v>153426837.0617866</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5831,11 +6015,17 @@
         <v>153691311.5370866</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5867,8 +6057,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5900,8 +6096,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5933,8 +6135,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5966,8 +6174,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5996,13 +6210,19 @@
         <v>153826528.4282866</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>6.144</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L149" t="n">
-        <v>1</v>
+        <v>1.039921875</v>
       </c>
       <c r="M149" t="inlineStr"/>
     </row>
@@ -6062,7 +6282,7 @@
         <v>154154729.5780866</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6095,7 +6315,7 @@
         <v>154154729.5780866</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6128,7 +6348,7 @@
         <v>153881592.1325866</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6161,7 +6381,7 @@
         <v>153899495.9406866</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6194,7 +6414,7 @@
         <v>152636022.8904866</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6227,7 +6447,7 @@
         <v>152636022.8904866</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6260,7 +6480,7 @@
         <v>152636022.8904866</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6293,7 +6513,7 @@
         <v>152636022.8904866</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>

--- a/BackTest/2020-01-15 BackTest VET.xlsx
+++ b/BackTest/2020-01-15 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:L158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>148632.4673</v>
       </c>
       <c r="G2" t="n">
-        <v>108172.7568</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>266091.0262</v>
       </c>
       <c r="G3" t="n">
-        <v>374263.7830000001</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>6.142</v>
       </c>
       <c r="I3" t="n">
         <v>6.142</v>
       </c>
-      <c r="J3" t="n">
-        <v>6.142</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>335739.552</v>
       </c>
       <c r="G4" t="n">
-        <v>710003.3350000001</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>6.143</v>
       </c>
       <c r="I4" t="n">
-        <v>6.143</v>
-      </c>
-      <c r="J4" t="n">
         <v>6.142</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>312418.0636</v>
       </c>
       <c r="G5" t="n">
-        <v>710003.3350000001</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>6.144</v>
       </c>
       <c r="I5" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="J5" t="n">
         <v>6.142</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +583,15 @@
         <v>29693.1749</v>
       </c>
       <c r="G6" t="n">
-        <v>710003.3350000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +613,15 @@
         <v>689.3581</v>
       </c>
       <c r="G7" t="n">
-        <v>710003.3350000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,26 +643,15 @@
         <v>3369834.998</v>
       </c>
       <c r="G8" t="n">
-        <v>4079838.333</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,26 +673,19 @@
         <v>139063.0236</v>
       </c>
       <c r="G9" t="n">
-        <v>4079838.333</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>6.18</v>
       </c>
       <c r="I9" t="n">
         <v>6.18</v>
       </c>
-      <c r="J9" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -760,26 +707,21 @@
         <v>2077.67</v>
       </c>
       <c r="G10" t="n">
-        <v>4079838.333</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
         <v>6.18</v>
       </c>
-      <c r="J10" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -801,26 +743,21 @@
         <v>272801.5961</v>
       </c>
       <c r="G11" t="n">
-        <v>3807036.7369</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
         <v>6.18</v>
       </c>
-      <c r="J11" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -842,26 +779,21 @@
         <v>32733.2242</v>
       </c>
       <c r="G12" t="n">
-        <v>3839769.9611</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>6.131</v>
-      </c>
-      <c r="J12" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -883,26 +815,21 @@
         <v>40000</v>
       </c>
       <c r="G13" t="n">
-        <v>3799769.9611</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>6.132</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -924,26 +851,21 @@
         <v>158.5157</v>
       </c>
       <c r="G14" t="n">
-        <v>3799928.4768</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>6.102</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -965,26 +887,21 @@
         <v>40000</v>
       </c>
       <c r="G15" t="n">
-        <v>3759928.4768</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>6.131</v>
-      </c>
-      <c r="J15" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1006,26 +923,21 @@
         <v>43585.8515</v>
       </c>
       <c r="G16" t="n">
-        <v>3759928.4768</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1047,26 +959,21 @@
         <v>139708</v>
       </c>
       <c r="G17" t="n">
-        <v>3899636.4768</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1088,26 +995,21 @@
         <v>40000</v>
       </c>
       <c r="G18" t="n">
-        <v>3859636.4768</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>6.121</v>
-      </c>
-      <c r="J18" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1129,26 +1031,21 @@
         <v>97259.5661</v>
       </c>
       <c r="G19" t="n">
-        <v>3956896.0429</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1170,26 +1067,21 @@
         <v>58482.4622</v>
       </c>
       <c r="G20" t="n">
-        <v>3956896.0429</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="J20" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1211,26 +1103,21 @@
         <v>24070.3617</v>
       </c>
       <c r="G21" t="n">
-        <v>3932825.6812</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="J21" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1252,26 +1139,21 @@
         <v>148132820.7493</v>
       </c>
       <c r="G22" t="n">
-        <v>152065646.4305</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1293,24 +1175,21 @@
         <v>27785.208</v>
       </c>
       <c r="G23" t="n">
-        <v>152093431.6385</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1332,24 +1211,21 @@
         <v>156000</v>
       </c>
       <c r="G24" t="n">
-        <v>151937431.6385</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1371,24 +1247,21 @@
         <v>36012.4939</v>
       </c>
       <c r="G25" t="n">
-        <v>151973444.1324</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1410,24 +1283,21 @@
         <v>489.66</v>
       </c>
       <c r="G26" t="n">
-        <v>151973444.1324</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1449,24 +1319,21 @@
         <v>240.7103</v>
       </c>
       <c r="G27" t="n">
-        <v>151973444.1324</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1488,24 +1355,21 @@
         <v>100000</v>
       </c>
       <c r="G28" t="n">
-        <v>151873444.1324</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1527,24 +1391,21 @@
         <v>93707.39049999999</v>
       </c>
       <c r="G29" t="n">
-        <v>151873444.1324</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1566,24 +1427,21 @@
         <v>62635.4929</v>
       </c>
       <c r="G30" t="n">
-        <v>151873444.1324</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1605,24 +1463,21 @@
         <v>47494.9173</v>
       </c>
       <c r="G31" t="n">
-        <v>151873444.1324</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1644,24 +1499,21 @@
         <v>26347.9043</v>
       </c>
       <c r="G32" t="n">
-        <v>151873444.1324</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1683,24 +1535,21 @@
         <v>96284.92</v>
       </c>
       <c r="G33" t="n">
-        <v>151873444.1324</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1722,24 +1571,21 @@
         <v>363529.375</v>
       </c>
       <c r="G34" t="n">
-        <v>151873444.1324</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1761,24 +1607,21 @@
         <v>5000</v>
       </c>
       <c r="G35" t="n">
-        <v>151878444.1324</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1800,24 +1643,21 @@
         <v>3844.8754</v>
       </c>
       <c r="G36" t="n">
-        <v>151882289.0078</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1839,24 +1679,21 @@
         <v>40000</v>
       </c>
       <c r="G37" t="n">
-        <v>151842289.0078</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1878,24 +1715,21 @@
         <v>4140.5161</v>
       </c>
       <c r="G38" t="n">
-        <v>151846429.5239</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1917,24 +1751,21 @@
         <v>3751.8485</v>
       </c>
       <c r="G39" t="n">
-        <v>151850181.3724</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1956,24 +1787,21 @@
         <v>4830.9393</v>
       </c>
       <c r="G40" t="n">
-        <v>151855012.3117</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1995,24 +1823,21 @@
         <v>9920.588599999999</v>
       </c>
       <c r="G41" t="n">
-        <v>151845091.7231</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2034,24 +1859,21 @@
         <v>40000</v>
       </c>
       <c r="G42" t="n">
-        <v>151805091.7231</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2073,24 +1895,21 @@
         <v>566428.9906</v>
       </c>
       <c r="G43" t="n">
-        <v>151238662.7325</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2112,24 +1931,21 @@
         <v>111850.54</v>
       </c>
       <c r="G44" t="n">
-        <v>151126812.1925</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2151,24 +1967,21 @@
         <v>18100.2215</v>
       </c>
       <c r="G45" t="n">
-        <v>151126812.1925</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2190,24 +2003,21 @@
         <v>100000</v>
       </c>
       <c r="G46" t="n">
-        <v>151226812.1925</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2229,24 +2039,21 @@
         <v>136776.8197</v>
       </c>
       <c r="G47" t="n">
-        <v>151090035.3728</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2268,24 +2075,21 @@
         <v>253155.1353</v>
       </c>
       <c r="G48" t="n">
-        <v>151343190.5081</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2307,24 +2111,21 @@
         <v>2154.8087</v>
       </c>
       <c r="G49" t="n">
-        <v>151343190.5081</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2346,24 +2147,21 @@
         <v>23915.0544</v>
       </c>
       <c r="G50" t="n">
-        <v>151319275.4537</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2385,24 +2183,21 @@
         <v>180519.6862</v>
       </c>
       <c r="G51" t="n">
-        <v>151499795.1399</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2424,24 +2219,21 @@
         <v>30000</v>
       </c>
       <c r="G52" t="n">
-        <v>151469795.1399</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2463,24 +2255,21 @@
         <v>62531.6973</v>
       </c>
       <c r="G53" t="n">
-        <v>151407263.4426</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2502,24 +2291,21 @@
         <v>62920</v>
       </c>
       <c r="G54" t="n">
-        <v>151407263.4426</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2541,24 +2327,21 @@
         <v>31262.4928</v>
       </c>
       <c r="G55" t="n">
-        <v>151407263.4426</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2580,24 +2363,21 @@
         <v>22939.6098</v>
       </c>
       <c r="G56" t="n">
-        <v>151384323.8328</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2619,24 +2399,21 @@
         <v>18303.5972</v>
       </c>
       <c r="G57" t="n">
-        <v>151384323.8328</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2658,24 +2435,21 @@
         <v>19939.618</v>
       </c>
       <c r="G58" t="n">
-        <v>151384323.8328</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2697,24 +2471,21 @@
         <v>6349.5087</v>
       </c>
       <c r="G59" t="n">
-        <v>151384323.8328</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2736,24 +2507,21 @@
         <v>12427.0915</v>
       </c>
       <c r="G60" t="n">
-        <v>151384323.8328</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2775,24 +2543,23 @@
         <v>38000</v>
       </c>
       <c r="G61" t="n">
-        <v>151346323.8328</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>6.08</v>
+      </c>
+      <c r="I61" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2814,24 +2581,23 @@
         <v>500</v>
       </c>
       <c r="G62" t="n">
-        <v>151346823.8328</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>6.079</v>
+      </c>
+      <c r="I62" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2853,24 +2619,23 @@
         <v>8266.752399999999</v>
       </c>
       <c r="G63" t="n">
-        <v>151355090.5852</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>6.101</v>
+      </c>
+      <c r="I63" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2892,24 +2657,23 @@
         <v>4091.3649</v>
       </c>
       <c r="G64" t="n">
-        <v>151359181.9501</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>6.102</v>
+      </c>
+      <c r="I64" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2931,24 +2695,21 @@
         <v>825.5051</v>
       </c>
       <c r="G65" t="n">
-        <v>151360007.4552</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2970,24 +2731,21 @@
         <v>9108.992399999999</v>
       </c>
       <c r="G66" t="n">
-        <v>151350898.4628001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3009,24 +2767,21 @@
         <v>16627</v>
       </c>
       <c r="G67" t="n">
-        <v>151350898.4628001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3048,24 +2803,21 @@
         <v>32152.6215</v>
       </c>
       <c r="G68" t="n">
-        <v>151350898.4628001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3087,24 +2839,21 @@
         <v>141.6517</v>
       </c>
       <c r="G69" t="n">
-        <v>151351040.1145</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3126,24 +2875,21 @@
         <v>186000</v>
       </c>
       <c r="G70" t="n">
-        <v>151165040.1145</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3165,24 +2911,21 @@
         <v>194100</v>
       </c>
       <c r="G71" t="n">
-        <v>151359140.1145</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3204,24 +2947,21 @@
         <v>860.4601</v>
       </c>
       <c r="G72" t="n">
-        <v>151358279.6544001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3243,24 +2983,21 @@
         <v>39865.0384</v>
       </c>
       <c r="G73" t="n">
-        <v>151358279.6544001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3282,24 +3019,21 @@
         <v>20001</v>
       </c>
       <c r="G74" t="n">
-        <v>151338278.6544001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3321,24 +3055,21 @@
         <v>117356.9465</v>
       </c>
       <c r="G75" t="n">
-        <v>151220921.7079</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3360,24 +3091,21 @@
         <v>12717.6495</v>
       </c>
       <c r="G76" t="n">
-        <v>151233639.3574001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3399,24 +3127,23 @@
         <v>112000</v>
       </c>
       <c r="G77" t="n">
-        <v>151345639.3574001</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>6.082</v>
+      </c>
+      <c r="I77" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3438,24 +3165,23 @@
         <v>48969.41997383911</v>
       </c>
       <c r="G78" t="n">
-        <v>151394608.7773739</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>6.084</v>
+      </c>
+      <c r="I78" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3477,24 +3203,23 @@
         <v>250330.5497</v>
       </c>
       <c r="G79" t="n">
-        <v>151144278.2276739</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>6.116</v>
+      </c>
+      <c r="I79" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3516,24 +3241,23 @@
         <v>7752.3256</v>
       </c>
       <c r="G80" t="n">
-        <v>151136525.9020739</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>6.115</v>
+      </c>
+      <c r="I80" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3555,24 +3279,23 @@
         <v>39865.0384</v>
       </c>
       <c r="G81" t="n">
-        <v>151176390.9404739</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>6.114</v>
+      </c>
+      <c r="I81" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3594,24 +3317,23 @@
         <v>412.8445</v>
       </c>
       <c r="G82" t="n">
-        <v>151176390.9404739</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>6.117</v>
+      </c>
+      <c r="I82" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3633,24 +3355,23 @@
         <v>76057.84269999999</v>
       </c>
       <c r="G83" t="n">
-        <v>151252448.7831739</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>6.117</v>
+      </c>
+      <c r="I83" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3672,24 +3393,21 @@
         <v>500</v>
       </c>
       <c r="G84" t="n">
-        <v>151251948.7831739</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3711,24 +3429,21 @@
         <v>300</v>
       </c>
       <c r="G85" t="n">
-        <v>151252248.7831739</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3750,24 +3465,21 @@
         <v>38642.349</v>
       </c>
       <c r="G86" t="n">
-        <v>151290891.1321739</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3789,24 +3501,21 @@
         <v>4207.0723</v>
       </c>
       <c r="G87" t="n">
-        <v>151295098.2044739</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3828,24 +3537,21 @@
         <v>127082.3749</v>
       </c>
       <c r="G88" t="n">
-        <v>151168015.8295739</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3867,24 +3573,21 @@
         <v>1600</v>
       </c>
       <c r="G89" t="n">
-        <v>151168015.8295739</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3906,24 +3609,21 @@
         <v>8116.6223</v>
       </c>
       <c r="G90" t="n">
-        <v>151159899.2072739</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3945,24 +3645,21 @@
         <v>32307.8671</v>
       </c>
       <c r="G91" t="n">
-        <v>151192207.0743739</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3984,24 +3681,21 @@
         <v>24996.8431</v>
       </c>
       <c r="G92" t="n">
-        <v>151167210.2312739</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4023,24 +3717,21 @@
         <v>5686</v>
       </c>
       <c r="G93" t="n">
-        <v>151172896.2312739</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4062,24 +3753,21 @@
         <v>32676</v>
       </c>
       <c r="G94" t="n">
-        <v>151205572.2312739</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4101,24 +3789,21 @@
         <v>16338</v>
       </c>
       <c r="G95" t="n">
-        <v>151205572.2312739</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4140,24 +3825,21 @@
         <v>17483.6383</v>
       </c>
       <c r="G96" t="n">
-        <v>151188088.5929739</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4179,24 +3861,21 @@
         <v>64202.9788</v>
       </c>
       <c r="G97" t="n">
-        <v>151252291.5717739</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4218,24 +3897,21 @@
         <v>142479.6276</v>
       </c>
       <c r="G98" t="n">
-        <v>151394771.1993739</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4257,24 +3933,21 @@
         <v>19359.3434</v>
       </c>
       <c r="G99" t="n">
-        <v>151394771.1993739</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4296,24 +3969,21 @@
         <v>79308.33990000001</v>
       </c>
       <c r="G100" t="n">
-        <v>151474079.5392739</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4335,24 +4005,21 @@
         <v>39906.7486</v>
       </c>
       <c r="G101" t="n">
-        <v>151434172.7906739</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4374,24 +4041,21 @@
         <v>2513.2514</v>
       </c>
       <c r="G102" t="n">
-        <v>151434172.7906739</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4413,24 +4077,21 @@
         <v>306000</v>
       </c>
       <c r="G103" t="n">
-        <v>151128172.7906739</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4452,24 +4113,21 @@
         <v>61276.5359</v>
       </c>
       <c r="G104" t="n">
-        <v>151066896.2547739</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4491,24 +4149,21 @@
         <v>243644.3926</v>
       </c>
       <c r="G105" t="n">
-        <v>151310540.6473739</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4530,24 +4185,21 @@
         <v>123761.8089</v>
       </c>
       <c r="G106" t="n">
-        <v>151186778.8384739</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4569,24 +4221,21 @@
         <v>59637.1492</v>
       </c>
       <c r="G107" t="n">
-        <v>151246415.9876739</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4608,24 +4257,21 @@
         <v>35018.9589</v>
       </c>
       <c r="G108" t="n">
-        <v>151211397.0287739</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4647,24 +4293,21 @@
         <v>24350.64935064935</v>
       </c>
       <c r="G109" t="n">
-        <v>151235747.6781245</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4686,24 +4329,21 @@
         <v>63285.8587</v>
       </c>
       <c r="G110" t="n">
-        <v>151172461.8194245</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4725,24 +4365,21 @@
         <v>81817.3167</v>
       </c>
       <c r="G111" t="n">
-        <v>151254279.1361245</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4764,24 +4401,21 @@
         <v>36355.0498</v>
       </c>
       <c r="G112" t="n">
-        <v>151290634.1859245</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4803,24 +4437,21 @@
         <v>116000</v>
       </c>
       <c r="G113" t="n">
-        <v>151406634.1859245</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4842,24 +4473,21 @@
         <v>1990.5205</v>
       </c>
       <c r="G114" t="n">
-        <v>151408624.7064245</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4881,24 +4509,21 @@
         <v>22920.5919</v>
       </c>
       <c r="G115" t="n">
-        <v>151431545.2983245</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4920,24 +4545,21 @@
         <v>188076</v>
       </c>
       <c r="G116" t="n">
-        <v>151243469.2983245</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4959,24 +4581,21 @@
         <v>317109.7837</v>
       </c>
       <c r="G117" t="n">
-        <v>151243469.2983245</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4998,24 +4617,21 @@
         <v>10115.7813</v>
       </c>
       <c r="G118" t="n">
-        <v>151233353.5170245</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5037,24 +4653,21 @@
         <v>200000</v>
       </c>
       <c r="G119" t="n">
-        <v>151033353.5170245</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5076,24 +4689,21 @@
         <v>30000</v>
       </c>
       <c r="G120" t="n">
-        <v>151063353.5170245</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5115,24 +4725,21 @@
         <v>161838.971</v>
       </c>
       <c r="G121" t="n">
-        <v>151225192.4880245</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5154,24 +4761,21 @@
         <v>137931.9653</v>
       </c>
       <c r="G122" t="n">
-        <v>151363124.4533245</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5193,24 +4797,21 @@
         <v>9920.588599999999</v>
       </c>
       <c r="G123" t="n">
-        <v>151373045.0419245</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5232,24 +4833,21 @@
         <v>1215.8127</v>
       </c>
       <c r="G124" t="n">
-        <v>151371829.2292245</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5271,24 +4869,21 @@
         <v>32000</v>
       </c>
       <c r="G125" t="n">
-        <v>151403829.2292245</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5310,24 +4905,21 @@
         <v>712138.6796</v>
       </c>
       <c r="G126" t="n">
-        <v>152115967.9088245</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5349,24 +4941,21 @@
         <v>576489.8615999999</v>
       </c>
       <c r="G127" t="n">
-        <v>152692457.7704245</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5388,24 +4977,21 @@
         <v>225819.7261</v>
       </c>
       <c r="G128" t="n">
-        <v>152692457.7704245</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5427,24 +5013,21 @@
         <v>122558.3832620903</v>
       </c>
       <c r="G129" t="n">
-        <v>152815016.1536866</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5466,24 +5049,21 @@
         <v>14860.9644</v>
       </c>
       <c r="G130" t="n">
-        <v>152800155.1892866</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5505,24 +5085,21 @@
         <v>4468.7108</v>
       </c>
       <c r="G131" t="n">
-        <v>152804623.9000866</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5544,24 +5121,21 @@
         <v>15225.7408</v>
       </c>
       <c r="G132" t="n">
-        <v>152789398.1592866</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5583,24 +5157,21 @@
         <v>22838.6113</v>
       </c>
       <c r="G133" t="n">
-        <v>152766559.5479866</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5622,24 +5193,21 @@
         <v>22838.6113</v>
       </c>
       <c r="G134" t="n">
-        <v>152766559.5479866</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5661,24 +5229,21 @@
         <v>152534.7118</v>
       </c>
       <c r="G135" t="n">
-        <v>152614024.8361866</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5700,24 +5265,21 @@
         <v>446242.5194</v>
       </c>
       <c r="G136" t="n">
-        <v>153060267.3555866</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5739,24 +5301,21 @@
         <v>221968.0102</v>
       </c>
       <c r="G137" t="n">
-        <v>153060267.3555866</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5778,24 +5337,21 @@
         <v>21104.1371</v>
       </c>
       <c r="G138" t="n">
-        <v>153039163.2184866</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5817,24 +5373,21 @@
         <v>22750</v>
       </c>
       <c r="G139" t="n">
-        <v>153061913.2184866</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5856,24 +5409,21 @@
         <v>67002.1719</v>
       </c>
       <c r="G140" t="n">
-        <v>153128915.3903866</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5895,24 +5445,21 @@
         <v>8698.922699999999</v>
       </c>
       <c r="G141" t="n">
-        <v>153137614.3130866</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5934,24 +5481,21 @@
         <v>255388.0585</v>
       </c>
       <c r="G142" t="n">
-        <v>153393002.3715866</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5973,24 +5517,21 @@
         <v>33834.6902</v>
       </c>
       <c r="G143" t="n">
-        <v>153426837.0617866</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6012,24 +5553,21 @@
         <v>264474.4753</v>
       </c>
       <c r="G144" t="n">
-        <v>153691311.5370866</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6051,24 +5589,21 @@
         <v>0.0003</v>
       </c>
       <c r="G145" t="n">
-        <v>153691311.5370866</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6090,24 +5625,21 @@
         <v>350000</v>
       </c>
       <c r="G146" t="n">
-        <v>154041311.5370866</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6129,24 +5661,21 @@
         <v>168978.6783</v>
       </c>
       <c r="G147" t="n">
-        <v>154041311.5370866</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6168,24 +5697,21 @@
         <v>251000</v>
       </c>
       <c r="G148" t="n">
-        <v>153790311.5370866</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6207,24 +5733,21 @@
         <v>36216.8912</v>
       </c>
       <c r="G149" t="n">
-        <v>153826528.4282866</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>6.144</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1.039921875</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6246,18 +5769,21 @@
         <v>328201.1498</v>
       </c>
       <c r="G150" t="n">
-        <v>154154729.5780866</v>
-      </c>
-      <c r="H150" t="n">
         <v>2</v>
       </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1.03868932038835</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6279,18 +5805,15 @@
         <v>309984.5495</v>
       </c>
       <c r="G151" t="n">
-        <v>154154729.5780866</v>
-      </c>
-      <c r="H151" t="n">
         <v>2</v>
       </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6312,18 +5835,15 @@
         <v>305881.7019</v>
       </c>
       <c r="G152" t="n">
-        <v>154154729.5780866</v>
-      </c>
-      <c r="H152" t="n">
         <v>2</v>
       </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6345,18 +5865,15 @@
         <v>273137.4455</v>
       </c>
       <c r="G153" t="n">
-        <v>153881592.1325866</v>
-      </c>
-      <c r="H153" t="n">
         <v>2</v>
       </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6378,18 +5895,15 @@
         <v>17903.8081</v>
       </c>
       <c r="G154" t="n">
-        <v>153899495.9406866</v>
-      </c>
-      <c r="H154" t="n">
         <v>2</v>
       </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6411,18 +5925,15 @@
         <v>1263473.0502</v>
       </c>
       <c r="G155" t="n">
-        <v>152636022.8904866</v>
-      </c>
-      <c r="H155" t="n">
         <v>2</v>
       </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6444,18 +5955,15 @@
         <v>29840.2999</v>
       </c>
       <c r="G156" t="n">
-        <v>152636022.8904866</v>
-      </c>
-      <c r="H156" t="n">
         <v>2</v>
       </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6477,18 +5985,15 @@
         <v>132.8283</v>
       </c>
       <c r="G157" t="n">
-        <v>152636022.8904866</v>
-      </c>
-      <c r="H157" t="n">
         <v>2</v>
       </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6510,18 +6015,15 @@
         <v>39963.9774</v>
       </c>
       <c r="G158" t="n">
-        <v>152636022.8904866</v>
-      </c>
-      <c r="H158" t="n">
         <v>2</v>
       </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
